--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -58260,22 +58260,22 @@
         <v>2.61</v>
       </c>
       <c r="AU276">
+        <v>4</v>
+      </c>
+      <c r="AV276">
+        <v>6</v>
+      </c>
+      <c r="AW276">
+        <v>10</v>
+      </c>
+      <c r="AX276">
         <v>5</v>
       </c>
-      <c r="AV276">
-        <v>4</v>
-      </c>
-      <c r="AW276">
-        <v>3</v>
-      </c>
-      <c r="AX276">
-        <v>4</v>
-      </c>
       <c r="AY276">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ276">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA276">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="364">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1104,6 +1104,9 @@
   <si>
     <t>['9', '19', '36']</t>
   </si>
+  <si>
+    <t>['28', '53', '65', '81']</t>
+  </si>
 </sst>
 </file>
 
@@ -1464,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -3658,7 +3661,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ11">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5715,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ21">
         <v>1.53</v>
@@ -7984,7 +7987,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR32">
         <v>0.85</v>
@@ -9217,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -11692,7 +11695,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ50">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -13543,7 +13546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ59">
         <v>0.63</v>
@@ -15812,7 +15815,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -18281,7 +18284,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ82">
         <v>1.19</v>
@@ -19108,7 +19111,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ86">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -20547,7 +20550,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ93">
         <v>2</v>
@@ -24258,7 +24261,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24461,7 +24464,7 @@
         <v>0.17</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ112">
         <v>0.88</v>
@@ -28993,7 +28996,7 @@
         <v>0.83</v>
       </c>
       <c r="AP134">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ134">
         <v>1.19</v>
@@ -29614,7 +29617,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ137">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -31259,7 +31262,7 @@
         <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ145">
         <v>1.47</v>
@@ -32292,7 +32295,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ150">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR150">
         <v>1.5</v>
@@ -33940,7 +33943,7 @@
         <v>1</v>
       </c>
       <c r="AQ158">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR158">
         <v>1.32</v>
@@ -35379,7 +35382,7 @@
         <v>1.22</v>
       </c>
       <c r="AP165">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ165">
         <v>1.47</v>
@@ -37648,7 +37651,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ176">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR176">
         <v>1.29</v>
@@ -39499,7 +39502,7 @@
         <v>1.9</v>
       </c>
       <c r="AP185">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ185">
         <v>2</v>
@@ -41974,7 +41977,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ197">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR197">
         <v>1.58</v>
@@ -43825,7 +43828,7 @@
         <v>0.45</v>
       </c>
       <c r="AP206">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ206">
         <v>0.38</v>
@@ -45270,7 +45273,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ213">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR213">
         <v>1.47</v>
@@ -47327,7 +47330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ223">
         <v>1.27</v>
@@ -48360,7 +48363,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ228">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR228">
         <v>1.42</v>
@@ -50211,7 +50214,7 @@
         <v>1</v>
       </c>
       <c r="AP237">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ237">
         <v>1.06</v>
@@ -52274,7 +52277,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ247">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR247">
         <v>1.78</v>
@@ -54334,7 +54337,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ257">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR257">
         <v>1.47</v>
@@ -54537,7 +54540,7 @@
         <v>1.57</v>
       </c>
       <c r="AP258">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ258">
         <v>1.63</v>
@@ -58942,6 +58945,212 @@
       </c>
       <c r="BP279">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>6775912</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45412.65625</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>70</v>
+      </c>
+      <c r="H280" t="s">
+        <v>72</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>4</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="O280" t="s">
+        <v>88</v>
+      </c>
+      <c r="P280" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q280">
+        <v>3.4</v>
+      </c>
+      <c r="R280">
+        <v>2.1</v>
+      </c>
+      <c r="S280">
+        <v>3.2</v>
+      </c>
+      <c r="T280">
+        <v>1.42</v>
+      </c>
+      <c r="U280">
+        <v>2.74</v>
+      </c>
+      <c r="V280">
+        <v>2.98</v>
+      </c>
+      <c r="W280">
+        <v>1.36</v>
+      </c>
+      <c r="X280">
+        <v>7.7</v>
+      </c>
+      <c r="Y280">
+        <v>1.06</v>
+      </c>
+      <c r="Z280">
+        <v>2.52</v>
+      </c>
+      <c r="AA280">
+        <v>3.25</v>
+      </c>
+      <c r="AB280">
+        <v>2.4</v>
+      </c>
+      <c r="AC280">
+        <v>1.03</v>
+      </c>
+      <c r="AD280">
+        <v>8.4</v>
+      </c>
+      <c r="AE280">
+        <v>1.31</v>
+      </c>
+      <c r="AF280">
+        <v>3.04</v>
+      </c>
+      <c r="AG280">
+        <v>1.86</v>
+      </c>
+      <c r="AH280">
+        <v>1.69</v>
+      </c>
+      <c r="AI280">
+        <v>1.78</v>
+      </c>
+      <c r="AJ280">
+        <v>1.93</v>
+      </c>
+      <c r="AK280">
+        <v>1.49</v>
+      </c>
+      <c r="AL280">
+        <v>1.31</v>
+      </c>
+      <c r="AM280">
+        <v>1.44</v>
+      </c>
+      <c r="AN280">
+        <v>1.8</v>
+      </c>
+      <c r="AO280">
+        <v>2.07</v>
+      </c>
+      <c r="AP280">
+        <v>1.69</v>
+      </c>
+      <c r="AQ280">
+        <v>2.13</v>
+      </c>
+      <c r="AR280">
+        <v>1.73</v>
+      </c>
+      <c r="AS280">
+        <v>1.43</v>
+      </c>
+      <c r="AT280">
+        <v>3.16</v>
+      </c>
+      <c r="AU280">
+        <v>0</v>
+      </c>
+      <c r="AV280">
+        <v>4</v>
+      </c>
+      <c r="AW280">
+        <v>3</v>
+      </c>
+      <c r="AX280">
+        <v>2</v>
+      </c>
+      <c r="AY280">
+        <v>3</v>
+      </c>
+      <c r="AZ280">
+        <v>6</v>
+      </c>
+      <c r="BA280">
+        <v>1</v>
+      </c>
+      <c r="BB280">
+        <v>6</v>
+      </c>
+      <c r="BC280">
+        <v>7</v>
+      </c>
+      <c r="BD280">
+        <v>1.76</v>
+      </c>
+      <c r="BE280">
+        <v>9.4</v>
+      </c>
+      <c r="BF280">
+        <v>2.32</v>
+      </c>
+      <c r="BG280">
+        <v>1.15</v>
+      </c>
+      <c r="BH280">
+        <v>4.75</v>
+      </c>
+      <c r="BI280">
+        <v>1.29</v>
+      </c>
+      <c r="BJ280">
+        <v>3.4</v>
+      </c>
+      <c r="BK280">
+        <v>1.48</v>
+      </c>
+      <c r="BL280">
+        <v>2.5</v>
+      </c>
+      <c r="BM280">
+        <v>1.73</v>
+      </c>
+      <c r="BN280">
+        <v>2</v>
+      </c>
+      <c r="BO280">
+        <v>2.1</v>
+      </c>
+      <c r="BP280">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -59087,31 +59087,31 @@
         <v>3.16</v>
       </c>
       <c r="AU280">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV280">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW280">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX280">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY280">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AZ280">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BA280">
         <v>1</v>
       </c>
       <c r="BB280">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC280">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD280">
         <v>1.76</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,12 @@
     <t>['45+2', '71']</t>
   </si>
   <si>
+    <t>['53', '63']</t>
+  </si>
+  <si>
+    <t>['6', '24']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1467,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1807,7 +1813,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1932,7 +1938,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2219,7 +2225,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2422,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ5">
         <v>0.63</v>
@@ -2550,7 +2556,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2631,7 +2637,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2837,7 +2843,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2962,7 +2968,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3246,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ9">
         <v>0.38</v>
@@ -3452,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ10">
         <v>1.27</v>
@@ -3580,7 +3586,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3786,7 +3792,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -4404,7 +4410,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4894,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -5512,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>0.38</v>
@@ -5721,7 +5727,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ21">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -6130,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ23">
         <v>0.88</v>
@@ -6339,7 +6345,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6542,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ25">
         <v>0.63</v>
@@ -7163,7 +7169,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR28">
         <v>1.07</v>
@@ -7288,7 +7294,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7369,7 +7375,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR29">
         <v>0.46</v>
@@ -7700,7 +7706,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7778,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7906,7 +7912,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8936,7 +8942,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9142,7 +9148,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9223,7 +9229,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR38">
         <v>1.48</v>
@@ -9554,7 +9560,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -10044,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ42">
         <v>0.88</v>
@@ -10378,7 +10384,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10456,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ44">
         <v>1.19</v>
@@ -10584,7 +10590,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10665,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR45">
         <v>1.45</v>
@@ -10790,7 +10796,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10996,7 +11002,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11202,7 +11208,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11280,7 +11286,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -11408,7 +11414,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11614,7 +11620,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11692,7 +11698,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50">
         <v>2.13</v>
@@ -11820,7 +11826,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12104,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1.2</v>
@@ -12232,7 +12238,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12313,7 +12319,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR53">
         <v>1.2</v>
@@ -12438,7 +12444,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12644,7 +12650,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -12725,7 +12731,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR55">
         <v>2</v>
@@ -12928,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ56">
         <v>1.19</v>
@@ -13262,7 +13268,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13343,7 +13349,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -13674,7 +13680,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -13961,7 +13967,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR61">
         <v>1.6</v>
@@ -14086,7 +14092,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14292,7 +14298,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14910,7 +14916,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15197,7 +15203,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR67">
         <v>1.47</v>
@@ -15322,7 +15328,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15403,7 +15409,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ68">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR68">
         <v>1.25</v>
@@ -15528,7 +15534,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15606,7 +15612,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69">
         <v>1.63</v>
@@ -15734,7 +15740,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15812,7 +15818,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>2.13</v>
@@ -16018,7 +16024,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ71">
         <v>1.19</v>
@@ -16146,7 +16152,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16224,10 +16230,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16352,7 +16358,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16558,7 +16564,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16639,7 +16645,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR74">
         <v>1.43</v>
@@ -16970,7 +16976,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17382,7 +17388,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17794,7 +17800,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -18000,7 +18006,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18490,10 +18496,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR83">
         <v>1.33</v>
@@ -18699,7 +18705,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
         <v>1.44</v>
@@ -18824,7 +18830,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -19108,7 +19114,7 @@
         <v>3</v>
       </c>
       <c r="AP86">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ86">
         <v>2.13</v>
@@ -19314,7 +19320,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ87">
         <v>1.2</v>
@@ -19442,7 +19448,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19523,7 +19529,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ88">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR88">
         <v>1.61</v>
@@ -19854,7 +19860,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20138,7 +20144,7 @@
         <v>1.25</v>
       </c>
       <c r="AP91">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ91">
         <v>1.19</v>
@@ -20472,7 +20478,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20965,7 +20971,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR95">
         <v>1.19</v>
@@ -21090,7 +21096,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21502,7 +21508,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -22201,7 +22207,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR101">
         <v>1.54</v>
@@ -22326,7 +22332,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22404,10 +22410,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR102">
         <v>1.56</v>
@@ -22532,7 +22538,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22610,7 +22616,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
         <v>1.47</v>
@@ -22738,7 +22744,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23231,7 +23237,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR106">
         <v>1.34</v>
@@ -23356,7 +23362,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23437,7 +23443,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ107">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.49</v>
@@ -23640,7 +23646,7 @@
         <v>2.5</v>
       </c>
       <c r="AP108">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ108">
         <v>2</v>
@@ -23768,7 +23774,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23846,7 +23852,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
         <v>1.47</v>
@@ -24180,7 +24186,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24592,7 +24598,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -25906,7 +25912,7 @@
         <v>1.57</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119">
         <v>1.27</v>
@@ -26115,7 +26121,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.64</v>
@@ -26321,7 +26327,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ121">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR121">
         <v>1.46</v>
@@ -26733,7 +26739,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR123">
         <v>1.5</v>
@@ -26936,7 +26942,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ124">
         <v>1.47</v>
@@ -27142,7 +27148,7 @@
         <v>2.14</v>
       </c>
       <c r="AP125">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
         <v>2</v>
@@ -27270,7 +27276,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27351,7 +27357,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ126">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR126">
         <v>1.46</v>
@@ -27476,7 +27482,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -27554,7 +27560,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ127">
         <v>1.47</v>
@@ -28506,7 +28512,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28712,7 +28718,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28918,7 +28924,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29536,7 +29542,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29820,7 +29826,7 @@
         <v>2.25</v>
       </c>
       <c r="AP138">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ138">
         <v>2</v>
@@ -30232,7 +30238,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ140">
         <v>1.47</v>
@@ -30360,7 +30366,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30441,7 +30447,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ141">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR141">
         <v>1.45</v>
@@ -30566,7 +30572,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -30647,7 +30653,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ142">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR142">
         <v>1.54</v>
@@ -30850,10 +30856,10 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
         <v>1.47</v>
@@ -30978,7 +30984,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31059,7 +31065,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR144">
         <v>1.62</v>
@@ -31390,7 +31396,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31468,7 +31474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP146">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
         <v>1.27</v>
@@ -31596,7 +31602,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31802,7 +31808,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32214,7 +32220,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32420,7 +32426,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33450,7 +33456,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33656,7 +33662,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33862,7 +33868,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34146,7 +34152,7 @@
         <v>1.25</v>
       </c>
       <c r="AP159">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
         <v>1.06</v>
@@ -34686,7 +34692,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -35098,7 +35104,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35588,10 +35594,10 @@
         <v>1.22</v>
       </c>
       <c r="AP166">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR166">
         <v>1.47</v>
@@ -35716,7 +35722,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -36003,7 +36009,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ168">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR168">
         <v>1.31</v>
@@ -36206,7 +36212,7 @@
         <v>0.44</v>
       </c>
       <c r="AP169">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ169">
         <v>0.63</v>
@@ -36334,7 +36340,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36415,7 +36421,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.45</v>
@@ -36824,10 +36830,10 @@
         <v>1.38</v>
       </c>
       <c r="AP172">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ172">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR172">
         <v>1.41</v>
@@ -36952,7 +36958,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37158,7 +37164,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37239,7 +37245,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ174">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR174">
         <v>1.43</v>
@@ -37570,7 +37576,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37776,7 +37782,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38394,7 +38400,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38472,7 +38478,7 @@
         <v>1.2</v>
       </c>
       <c r="AP180">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ180">
         <v>1.27</v>
@@ -38678,7 +38684,7 @@
         <v>0.5</v>
       </c>
       <c r="AP181">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ181">
         <v>0.88</v>
@@ -38806,7 +38812,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39093,7 +39099,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ183">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR183">
         <v>1.48</v>
@@ -39299,7 +39305,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ184">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR184">
         <v>1.64</v>
@@ -39424,7 +39430,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39711,7 +39717,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR186">
         <v>1.37</v>
@@ -39836,7 +39842,7 @@
         <v>155</v>
       </c>
       <c r="P187" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -40120,7 +40126,7 @@
         <v>0.5</v>
       </c>
       <c r="AP188">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ188">
         <v>0.38</v>
@@ -40454,7 +40460,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -40535,7 +40541,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ190">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR190">
         <v>1.47</v>
@@ -41072,7 +41078,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41153,7 +41159,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR193">
         <v>1.26</v>
@@ -41278,7 +41284,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41356,7 +41362,7 @@
         <v>1.2</v>
       </c>
       <c r="AP194">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ194">
         <v>1.06</v>
@@ -41484,7 +41490,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41768,7 +41774,7 @@
         <v>1.56</v>
       </c>
       <c r="AP196">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ196">
         <v>1.63</v>
@@ -41896,7 +41902,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42102,7 +42108,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42180,7 +42186,7 @@
         <v>1.1</v>
       </c>
       <c r="AP198">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ198">
         <v>1.19</v>
@@ -42389,7 +42395,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ199">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR199">
         <v>1.48</v>
@@ -42592,7 +42598,7 @@
         <v>1.18</v>
       </c>
       <c r="AP200">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ200">
         <v>1.06</v>
@@ -42720,7 +42726,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42926,7 +42932,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43007,7 +43013,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ202">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR202">
         <v>1.44</v>
@@ -43544,7 +43550,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -44368,7 +44374,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44574,7 +44580,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -44652,7 +44658,7 @@
         <v>1.09</v>
       </c>
       <c r="AP210">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ210">
         <v>1.19</v>
@@ -44858,7 +44864,7 @@
         <v>1.36</v>
       </c>
       <c r="AP211">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ211">
         <v>1.63</v>
@@ -44986,7 +44992,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45398,7 +45404,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -45479,7 +45485,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ214">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -45682,7 +45688,7 @@
         <v>2.09</v>
       </c>
       <c r="AP215">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ215">
         <v>2</v>
@@ -46016,7 +46022,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -46097,7 +46103,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ217">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR217">
         <v>1.58</v>
@@ -47458,7 +47464,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47664,7 +47670,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -47745,7 +47751,7 @@
         <v>1</v>
       </c>
       <c r="AQ225">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR225">
         <v>1.35</v>
@@ -48157,7 +48163,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ227">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR227">
         <v>1.35</v>
@@ -48360,7 +48366,7 @@
         <v>2.25</v>
       </c>
       <c r="AP228">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ228">
         <v>2.13</v>
@@ -48488,7 +48494,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48694,7 +48700,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -48772,7 +48778,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ230">
         <v>1.2</v>
@@ -48981,7 +48987,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ231">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR231">
         <v>1.57</v>
@@ -49184,7 +49190,7 @@
         <v>1.25</v>
       </c>
       <c r="AP232">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ232">
         <v>1.47</v>
@@ -49312,7 +49318,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49390,7 +49396,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ233">
         <v>1.63</v>
@@ -49518,7 +49524,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -49805,7 +49811,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ235">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR235">
         <v>1.51</v>
@@ -50835,7 +50841,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ240">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR240">
         <v>1.58</v>
@@ -50960,7 +50966,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51372,7 +51378,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51578,7 +51584,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51865,7 +51871,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ245">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR245">
         <v>1.47</v>
@@ -52071,7 +52077,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ246">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR246">
         <v>1.43</v>
@@ -52402,7 +52408,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52480,10 +52486,10 @@
         <v>1.54</v>
       </c>
       <c r="AP248">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ248">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR248">
         <v>1.39</v>
@@ -52814,7 +52820,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -52892,7 +52898,7 @@
         <v>1.08</v>
       </c>
       <c r="AP250">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ250">
         <v>1.2</v>
@@ -53226,7 +53232,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53304,7 +53310,7 @@
         <v>1.38</v>
       </c>
       <c r="AP252">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ252">
         <v>1.19</v>
@@ -53432,7 +53438,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -53510,7 +53516,7 @@
         <v>1.23</v>
       </c>
       <c r="AP253">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ253">
         <v>1.47</v>
@@ -54256,7 +54262,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54462,7 +54468,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -55492,7 +55498,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55570,10 +55576,10 @@
         <v>1.36</v>
       </c>
       <c r="AP263">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ263">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR263">
         <v>1.37</v>
@@ -55698,7 +55704,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55904,7 +55910,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -55985,7 +55991,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ265">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR265">
         <v>1.32</v>
@@ -56188,10 +56194,10 @@
         <v>1.64</v>
       </c>
       <c r="AP266">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ266">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR266">
         <v>1.56</v>
@@ -56316,7 +56322,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56394,10 +56400,10 @@
         <v>0.5</v>
       </c>
       <c r="AP267">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ267">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR267">
         <v>1.43</v>
@@ -56522,7 +56528,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56600,7 +56606,7 @@
         <v>1.36</v>
       </c>
       <c r="AP268">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ268">
         <v>1.47</v>
@@ -56728,7 +56734,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56934,7 +56940,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57140,7 +57146,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57346,7 +57352,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57552,7 +57558,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57758,7 +57764,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -57964,7 +57970,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58170,7 +58176,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58582,7 +58588,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58788,7 +58794,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -58994,7 +59000,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -59151,6 +59157,830 @@
       </c>
       <c r="BP280">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6775919</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45415.58333333334</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>78</v>
+      </c>
+      <c r="H281" t="s">
+        <v>84</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>2</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>259</v>
+      </c>
+      <c r="P281" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q281">
+        <v>1.83</v>
+      </c>
+      <c r="R281">
+        <v>2.3</v>
+      </c>
+      <c r="S281">
+        <v>9</v>
+      </c>
+      <c r="T281">
+        <v>1.4</v>
+      </c>
+      <c r="U281">
+        <v>2.75</v>
+      </c>
+      <c r="V281">
+        <v>3</v>
+      </c>
+      <c r="W281">
+        <v>1.36</v>
+      </c>
+      <c r="X281">
+        <v>8</v>
+      </c>
+      <c r="Y281">
+        <v>1.08</v>
+      </c>
+      <c r="Z281">
+        <v>1.31</v>
+      </c>
+      <c r="AA281">
+        <v>4.3</v>
+      </c>
+      <c r="AB281">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC281">
+        <v>1.05</v>
+      </c>
+      <c r="AD281">
+        <v>8.5</v>
+      </c>
+      <c r="AE281">
+        <v>1.3</v>
+      </c>
+      <c r="AF281">
+        <v>3.3</v>
+      </c>
+      <c r="AG281">
+        <v>2.04</v>
+      </c>
+      <c r="AH281">
+        <v>1.82</v>
+      </c>
+      <c r="AI281">
+        <v>2.5</v>
+      </c>
+      <c r="AJ281">
+        <v>1.5</v>
+      </c>
+      <c r="AK281">
+        <v>1.07</v>
+      </c>
+      <c r="AL281">
+        <v>1.12</v>
+      </c>
+      <c r="AM281">
+        <v>2.88</v>
+      </c>
+      <c r="AN281">
+        <v>2.13</v>
+      </c>
+      <c r="AO281">
+        <v>0.67</v>
+      </c>
+      <c r="AP281">
+        <v>2.19</v>
+      </c>
+      <c r="AQ281">
+        <v>0.63</v>
+      </c>
+      <c r="AR281">
+        <v>1.53</v>
+      </c>
+      <c r="AS281">
+        <v>1.28</v>
+      </c>
+      <c r="AT281">
+        <v>2.81</v>
+      </c>
+      <c r="AU281">
+        <v>8</v>
+      </c>
+      <c r="AV281">
+        <v>2</v>
+      </c>
+      <c r="AW281">
+        <v>2</v>
+      </c>
+      <c r="AX281">
+        <v>5</v>
+      </c>
+      <c r="AY281">
+        <v>10</v>
+      </c>
+      <c r="AZ281">
+        <v>7</v>
+      </c>
+      <c r="BA281">
+        <v>6</v>
+      </c>
+      <c r="BB281">
+        <v>5</v>
+      </c>
+      <c r="BC281">
+        <v>11</v>
+      </c>
+      <c r="BD281">
+        <v>1.28</v>
+      </c>
+      <c r="BE281">
+        <v>10</v>
+      </c>
+      <c r="BF281">
+        <v>4.45</v>
+      </c>
+      <c r="BG281">
+        <v>1.4</v>
+      </c>
+      <c r="BH281">
+        <v>2.7</v>
+      </c>
+      <c r="BI281">
+        <v>1.67</v>
+      </c>
+      <c r="BJ281">
+        <v>2.1</v>
+      </c>
+      <c r="BK281">
+        <v>2.1</v>
+      </c>
+      <c r="BL281">
+        <v>1.67</v>
+      </c>
+      <c r="BM281">
+        <v>2.62</v>
+      </c>
+      <c r="BN281">
+        <v>1.42</v>
+      </c>
+      <c r="BO281">
+        <v>3.6</v>
+      </c>
+      <c r="BP281">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6775914</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45416.29166666666</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>85</v>
+      </c>
+      <c r="H282" t="s">
+        <v>81</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
+        <v>122</v>
+      </c>
+      <c r="P282" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q282">
+        <v>2.94</v>
+      </c>
+      <c r="R282">
+        <v>2.07</v>
+      </c>
+      <c r="S282">
+        <v>3.54</v>
+      </c>
+      <c r="T282">
+        <v>1.37</v>
+      </c>
+      <c r="U282">
+        <v>2.8</v>
+      </c>
+      <c r="V282">
+        <v>2.75</v>
+      </c>
+      <c r="W282">
+        <v>1.4</v>
+      </c>
+      <c r="X282">
+        <v>6.5</v>
+      </c>
+      <c r="Y282">
+        <v>1.08</v>
+      </c>
+      <c r="Z282">
+        <v>2.37</v>
+      </c>
+      <c r="AA282">
+        <v>3.1</v>
+      </c>
+      <c r="AB282">
+        <v>2.62</v>
+      </c>
+      <c r="AC282">
+        <v>1.02</v>
+      </c>
+      <c r="AD282">
+        <v>9.5</v>
+      </c>
+      <c r="AE282">
+        <v>1.25</v>
+      </c>
+      <c r="AF282">
+        <v>3.5</v>
+      </c>
+      <c r="AG282">
+        <v>1.91</v>
+      </c>
+      <c r="AH282">
+        <v>1.8</v>
+      </c>
+      <c r="AI282">
+        <v>1.7</v>
+      </c>
+      <c r="AJ282">
+        <v>2.03</v>
+      </c>
+      <c r="AK282">
+        <v>1.39</v>
+      </c>
+      <c r="AL282">
+        <v>1.31</v>
+      </c>
+      <c r="AM282">
+        <v>1.55</v>
+      </c>
+      <c r="AN282">
+        <v>1.4</v>
+      </c>
+      <c r="AO282">
+        <v>1</v>
+      </c>
+      <c r="AP282">
+        <v>1.5</v>
+      </c>
+      <c r="AQ282">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR282">
+        <v>1.4</v>
+      </c>
+      <c r="AS282">
+        <v>1.26</v>
+      </c>
+      <c r="AT282">
+        <v>2.66</v>
+      </c>
+      <c r="AU282">
+        <v>3</v>
+      </c>
+      <c r="AV282">
+        <v>2</v>
+      </c>
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>9</v>
+      </c>
+      <c r="AY282">
+        <v>8</v>
+      </c>
+      <c r="AZ282">
+        <v>11</v>
+      </c>
+      <c r="BA282">
+        <v>7</v>
+      </c>
+      <c r="BB282">
+        <v>1</v>
+      </c>
+      <c r="BC282">
+        <v>8</v>
+      </c>
+      <c r="BD282">
+        <v>2.21</v>
+      </c>
+      <c r="BE282">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF282">
+        <v>1.83</v>
+      </c>
+      <c r="BG282">
+        <v>1.12</v>
+      </c>
+      <c r="BH282">
+        <v>4.33</v>
+      </c>
+      <c r="BI282">
+        <v>1.28</v>
+      </c>
+      <c r="BJ282">
+        <v>3.5</v>
+      </c>
+      <c r="BK282">
+        <v>1.54</v>
+      </c>
+      <c r="BL282">
+        <v>2.43</v>
+      </c>
+      <c r="BM282">
+        <v>1.95</v>
+      </c>
+      <c r="BN282">
+        <v>1.85</v>
+      </c>
+      <c r="BO282">
+        <v>2.35</v>
+      </c>
+      <c r="BP282">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6775922</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>73</v>
+      </c>
+      <c r="H283" t="s">
+        <v>87</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283" t="s">
+        <v>100</v>
+      </c>
+      <c r="P283" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q283">
+        <v>3.2</v>
+      </c>
+      <c r="R283">
+        <v>2.13</v>
+      </c>
+      <c r="S283">
+        <v>3.65</v>
+      </c>
+      <c r="T283">
+        <v>1.45</v>
+      </c>
+      <c r="U283">
+        <v>2.77</v>
+      </c>
+      <c r="V283">
+        <v>3.24</v>
+      </c>
+      <c r="W283">
+        <v>1.34</v>
+      </c>
+      <c r="X283">
+        <v>8.1</v>
+      </c>
+      <c r="Y283">
+        <v>1.04</v>
+      </c>
+      <c r="Z283">
+        <v>2.3</v>
+      </c>
+      <c r="AA283">
+        <v>2.88</v>
+      </c>
+      <c r="AB283">
+        <v>2.9</v>
+      </c>
+      <c r="AC283">
+        <v>1.04</v>
+      </c>
+      <c r="AD283">
+        <v>7.5</v>
+      </c>
+      <c r="AE283">
+        <v>1.34</v>
+      </c>
+      <c r="AF283">
+        <v>2.88</v>
+      </c>
+      <c r="AG283">
+        <v>2.06</v>
+      </c>
+      <c r="AH283">
+        <v>1.63</v>
+      </c>
+      <c r="AI283">
+        <v>1.84</v>
+      </c>
+      <c r="AJ283">
+        <v>1.92</v>
+      </c>
+      <c r="AK283">
+        <v>1.38</v>
+      </c>
+      <c r="AL283">
+        <v>1.33</v>
+      </c>
+      <c r="AM283">
+        <v>1.52</v>
+      </c>
+      <c r="AN283">
+        <v>1.47</v>
+      </c>
+      <c r="AO283">
+        <v>1.33</v>
+      </c>
+      <c r="AP283">
+        <v>1.44</v>
+      </c>
+      <c r="AQ283">
+        <v>1.31</v>
+      </c>
+      <c r="AR283">
+        <v>1.41</v>
+      </c>
+      <c r="AS283">
+        <v>1.28</v>
+      </c>
+      <c r="AT283">
+        <v>2.69</v>
+      </c>
+      <c r="AU283">
+        <v>6</v>
+      </c>
+      <c r="AV283">
+        <v>3</v>
+      </c>
+      <c r="AW283">
+        <v>6</v>
+      </c>
+      <c r="AX283">
+        <v>5</v>
+      </c>
+      <c r="AY283">
+        <v>12</v>
+      </c>
+      <c r="AZ283">
+        <v>8</v>
+      </c>
+      <c r="BA283">
+        <v>2</v>
+      </c>
+      <c r="BB283">
+        <v>5</v>
+      </c>
+      <c r="BC283">
+        <v>7</v>
+      </c>
+      <c r="BD283">
+        <v>1.8</v>
+      </c>
+      <c r="BE283">
+        <v>9.1</v>
+      </c>
+      <c r="BF283">
+        <v>2.27</v>
+      </c>
+      <c r="BG283">
+        <v>1.15</v>
+      </c>
+      <c r="BH283">
+        <v>4.5</v>
+      </c>
+      <c r="BI283">
+        <v>1.31</v>
+      </c>
+      <c r="BJ283">
+        <v>3.04</v>
+      </c>
+      <c r="BK283">
+        <v>1.57</v>
+      </c>
+      <c r="BL283">
+        <v>2.33</v>
+      </c>
+      <c r="BM283">
+        <v>2</v>
+      </c>
+      <c r="BN283">
+        <v>1.8</v>
+      </c>
+      <c r="BO283">
+        <v>2.44</v>
+      </c>
+      <c r="BP283">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6775918</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45416.47916666666</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>77</v>
+      </c>
+      <c r="H284" t="s">
+        <v>82</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>3</v>
+      </c>
+      <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>3</v>
+      </c>
+      <c r="O284" t="s">
+        <v>260</v>
+      </c>
+      <c r="P284" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q284">
+        <v>3.24</v>
+      </c>
+      <c r="R284">
+        <v>2.22</v>
+      </c>
+      <c r="S284">
+        <v>3.38</v>
+      </c>
+      <c r="T284">
+        <v>1.4</v>
+      </c>
+      <c r="U284">
+        <v>2.98</v>
+      </c>
+      <c r="V284">
+        <v>2.97</v>
+      </c>
+      <c r="W284">
+        <v>1.4</v>
+      </c>
+      <c r="X284">
+        <v>7.21</v>
+      </c>
+      <c r="Y284">
+        <v>1.06</v>
+      </c>
+      <c r="Z284">
+        <v>2.37</v>
+      </c>
+      <c r="AA284">
+        <v>3.1</v>
+      </c>
+      <c r="AB284">
+        <v>2.62</v>
+      </c>
+      <c r="AC284">
+        <v>1.03</v>
+      </c>
+      <c r="AD284">
+        <v>8.4</v>
+      </c>
+      <c r="AE284">
+        <v>1.28</v>
+      </c>
+      <c r="AF284">
+        <v>3.2</v>
+      </c>
+      <c r="AG284">
+        <v>1.91</v>
+      </c>
+      <c r="AH284">
+        <v>1.83</v>
+      </c>
+      <c r="AI284">
+        <v>1.73</v>
+      </c>
+      <c r="AJ284">
+        <v>2.05</v>
+      </c>
+      <c r="AK284">
+        <v>1.37</v>
+      </c>
+      <c r="AL284">
+        <v>1.31</v>
+      </c>
+      <c r="AM284">
+        <v>1.56</v>
+      </c>
+      <c r="AN284">
+        <v>0.93</v>
+      </c>
+      <c r="AO284">
+        <v>1.53</v>
+      </c>
+      <c r="AP284">
+        <v>1.06</v>
+      </c>
+      <c r="AQ284">
+        <v>1.44</v>
+      </c>
+      <c r="AR284">
+        <v>1.43</v>
+      </c>
+      <c r="AS284">
+        <v>1.17</v>
+      </c>
+      <c r="AT284">
+        <v>2.6</v>
+      </c>
+      <c r="AU284">
+        <v>2</v>
+      </c>
+      <c r="AV284">
+        <v>3</v>
+      </c>
+      <c r="AW284">
+        <v>7</v>
+      </c>
+      <c r="AX284">
+        <v>3</v>
+      </c>
+      <c r="AY284">
+        <v>9</v>
+      </c>
+      <c r="AZ284">
+        <v>6</v>
+      </c>
+      <c r="BA284">
+        <v>3</v>
+      </c>
+      <c r="BB284">
+        <v>8</v>
+      </c>
+      <c r="BC284">
+        <v>11</v>
+      </c>
+      <c r="BD284">
+        <v>1.71</v>
+      </c>
+      <c r="BE284">
+        <v>9.6</v>
+      </c>
+      <c r="BF284">
+        <v>2.4</v>
+      </c>
+      <c r="BG284">
+        <v>1.09</v>
+      </c>
+      <c r="BH284">
+        <v>5.7</v>
+      </c>
+      <c r="BI284">
+        <v>1.21</v>
+      </c>
+      <c r="BJ284">
+        <v>3.74</v>
+      </c>
+      <c r="BK284">
+        <v>1.39</v>
+      </c>
+      <c r="BL284">
+        <v>2.67</v>
+      </c>
+      <c r="BM284">
+        <v>1.92</v>
+      </c>
+      <c r="BN284">
+        <v>1.88</v>
+      </c>
+      <c r="BO284">
+        <v>2.11</v>
+      </c>
+      <c r="BP284">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,9 @@
     <t>['6', '24']</t>
   </si>
   <si>
+    <t>['17', '21', '87', '90+2']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1112,6 +1115,9 @@
   </si>
   <si>
     <t>['28', '53', '65', '81']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP284"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1938,7 +1944,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2016,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2556,7 +2562,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.31</v>
@@ -2968,7 +2974,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3586,7 +3592,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3792,7 +3798,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -4410,7 +4416,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4697,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -6757,7 +6763,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR26">
         <v>1.41</v>
@@ -7166,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ28">
         <v>1.31</v>
@@ -7294,7 +7300,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7581,7 +7587,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ30">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7706,7 +7712,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7912,7 +7918,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8196,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.19</v>
@@ -8942,7 +8948,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9148,7 +9154,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9560,7 +9566,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -9641,7 +9647,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR40">
         <v>1.26</v>
@@ -9844,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ41">
         <v>0.38</v>
@@ -10384,7 +10390,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10590,7 +10596,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10796,7 +10802,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11002,7 +11008,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11208,7 +11214,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11414,7 +11420,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11620,7 +11626,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11826,7 +11832,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11907,7 +11913,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ51">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR51">
         <v>1.22</v>
@@ -12238,7 +12244,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12444,7 +12450,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12522,7 +12528,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1.63</v>
@@ -12650,7 +12656,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -13140,7 +13146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ57">
         <v>1.06</v>
@@ -13268,7 +13274,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13680,7 +13686,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -14092,7 +14098,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14173,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -14298,7 +14304,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14788,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.47</v>
@@ -14916,7 +14922,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15328,7 +15334,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15534,7 +15540,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15740,7 +15746,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16152,7 +16158,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16358,7 +16364,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16439,7 +16445,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ73">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.8</v>
@@ -16564,7 +16570,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16976,7 +16982,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17388,7 +17394,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17466,7 +17472,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17800,7 +17806,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -17881,7 +17887,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -18006,7 +18012,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18702,7 +18708,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ84">
         <v>0.9399999999999999</v>
@@ -18830,7 +18836,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -18908,10 +18914,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -19448,7 +19454,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19860,7 +19866,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19941,7 +19947,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR90">
         <v>1.58</v>
@@ -20478,7 +20484,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -21096,7 +21102,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21508,7 +21514,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -22332,7 +22338,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22538,7 +22544,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22619,7 +22625,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22744,7 +22750,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22822,7 +22828,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ104">
         <v>1.2</v>
@@ -23362,7 +23368,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23440,7 +23446,7 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>1.44</v>
@@ -23649,7 +23655,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ108">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR108">
         <v>1.4</v>
@@ -23774,7 +23780,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24186,7 +24192,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24598,7 +24604,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -26118,7 +26124,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -26324,7 +26330,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ121">
         <v>0.63</v>
@@ -26945,7 +26951,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ124">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR124">
         <v>1.39</v>
@@ -27151,7 +27157,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR125">
         <v>1.26</v>
@@ -27276,7 +27282,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27482,7 +27488,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -28512,7 +28518,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28718,7 +28724,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28924,7 +28930,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29542,7 +29548,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29829,7 +29835,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ138">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -30032,7 +30038,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>0.63</v>
@@ -30366,7 +30372,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30572,7 +30578,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -30650,7 +30656,7 @@
         <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ142">
         <v>1.44</v>
@@ -30984,7 +30990,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31271,7 +31277,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ145">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR145">
         <v>1.63</v>
@@ -31396,7 +31402,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31602,7 +31608,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31808,7 +31814,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32220,7 +32226,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32426,7 +32432,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33456,7 +33462,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33662,7 +33668,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33868,7 +33874,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34361,7 +34367,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ160">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34692,7 +34698,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -35104,7 +35110,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35185,7 +35191,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ164">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR164">
         <v>1.68</v>
@@ -35722,7 +35728,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -35800,7 +35806,7 @@
         <v>1.33</v>
       </c>
       <c r="AP167">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ167">
         <v>1.27</v>
@@ -36340,7 +36346,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36624,7 +36630,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP171">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
         <v>0.38</v>
@@ -36958,7 +36964,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37164,7 +37170,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37451,7 +37457,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR175">
         <v>1.23</v>
@@ -37576,7 +37582,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37782,7 +37788,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37860,7 +37866,7 @@
         <v>1.22</v>
       </c>
       <c r="AP177">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
         <v>1.06</v>
@@ -38400,7 +38406,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38812,7 +38818,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -38890,7 +38896,7 @@
         <v>0.7</v>
       </c>
       <c r="AP182">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ182">
         <v>0.63</v>
@@ -39430,7 +39436,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39511,7 +39517,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ185">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR185">
         <v>1.66</v>
@@ -39842,7 +39848,7 @@
         <v>155</v>
       </c>
       <c r="P187" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -40460,7 +40466,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -40953,7 +40959,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ192">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR192">
         <v>1.59</v>
@@ -41078,7 +41084,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41284,7 +41290,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41490,7 +41496,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41568,7 +41574,7 @@
         <v>2</v>
       </c>
       <c r="AP195">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ195">
         <v>2</v>
@@ -41902,7 +41908,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42108,7 +42114,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42726,7 +42732,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42804,7 +42810,7 @@
         <v>0.45</v>
       </c>
       <c r="AP201">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ201">
         <v>0.88</v>
@@ -42932,7 +42938,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43425,7 +43431,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ204">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR204">
         <v>1.43</v>
@@ -43550,7 +43556,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -44374,7 +44380,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44580,7 +44586,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -44992,7 +44998,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45073,7 +45079,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ212">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR212">
         <v>1.27</v>
@@ -45276,7 +45282,7 @@
         <v>2.18</v>
       </c>
       <c r="AP213">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ213">
         <v>2.13</v>
@@ -45404,7 +45410,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -46022,7 +46028,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -46718,7 +46724,7 @@
         <v>1.17</v>
       </c>
       <c r="AP220">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ220">
         <v>1.19</v>
@@ -47464,7 +47470,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47545,7 +47551,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ224">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR224">
         <v>1.48</v>
@@ -47670,7 +47676,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -48494,7 +48500,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48572,7 +48578,7 @@
         <v>1.25</v>
       </c>
       <c r="AP229">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ229">
         <v>1.19</v>
@@ -48700,7 +48706,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -49193,7 +49199,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ232">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR232">
         <v>1.36</v>
@@ -49318,7 +49324,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49524,7 +49530,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -50966,7 +50972,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51378,7 +51384,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51584,7 +51590,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51868,7 +51874,7 @@
         <v>0.54</v>
       </c>
       <c r="AP245">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ245">
         <v>0.63</v>
@@ -52280,7 +52286,7 @@
         <v>2.15</v>
       </c>
       <c r="AP247">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ247">
         <v>2.13</v>
@@ -52408,7 +52414,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52820,7 +52826,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53107,7 +53113,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ251">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR251">
         <v>1.33</v>
@@ -53232,7 +53238,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53438,7 +53444,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -53519,7 +53525,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ253">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR253">
         <v>1.43</v>
@@ -54262,7 +54268,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54468,7 +54474,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -55498,7 +55504,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55704,7 +55710,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55782,7 +55788,7 @@
         <v>1.21</v>
       </c>
       <c r="AP264">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ264">
         <v>1.2</v>
@@ -55910,7 +55916,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56322,7 +56328,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56528,7 +56534,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56734,7 +56740,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56815,7 +56821,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ269">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR269">
         <v>1.55</v>
@@ -56940,7 +56946,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57018,7 +57024,7 @@
         <v>1.29</v>
       </c>
       <c r="AP270">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ270">
         <v>1.19</v>
@@ -57146,7 +57152,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57227,7 +57233,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ271">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR271">
         <v>1.6</v>
@@ -57352,7 +57358,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57558,7 +57564,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57764,7 +57770,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -57970,7 +57976,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58176,7 +58182,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58588,7 +58594,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58794,7 +58800,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -59000,7 +59006,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -59299,19 +59305,19 @@
         <v>2.81</v>
       </c>
       <c r="AU281">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV281">
         <v>2</v>
       </c>
       <c r="AW281">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX281">
         <v>5</v>
       </c>
       <c r="AY281">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ281">
         <v>7</v>
@@ -59523,13 +59529,13 @@
         <v>11</v>
       </c>
       <c r="BA282">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC282">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD282">
         <v>2.21</v>
@@ -59711,22 +59717,22 @@
         <v>2.69</v>
       </c>
       <c r="AU283">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV283">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW283">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX283">
         <v>5</v>
       </c>
       <c r="AY283">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ283">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA283">
         <v>2</v>
@@ -59917,19 +59923,19 @@
         <v>2.6</v>
       </c>
       <c r="AU284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW284">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX284">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY284">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ284">
         <v>6</v>
@@ -59981,6 +59987,418 @@
       </c>
       <c r="BP284">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>6775921</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45417.29166666666</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>75</v>
+      </c>
+      <c r="H285" t="s">
+        <v>79</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
+        <v>88</v>
+      </c>
+      <c r="P285" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q285">
+        <v>4.75</v>
+      </c>
+      <c r="R285">
+        <v>2.1</v>
+      </c>
+      <c r="S285">
+        <v>2.4</v>
+      </c>
+      <c r="T285">
+        <v>1.42</v>
+      </c>
+      <c r="U285">
+        <v>2.62</v>
+      </c>
+      <c r="V285">
+        <v>2.9</v>
+      </c>
+      <c r="W285">
+        <v>1.36</v>
+      </c>
+      <c r="X285">
+        <v>7</v>
+      </c>
+      <c r="Y285">
+        <v>1.07</v>
+      </c>
+      <c r="Z285">
+        <v>4.88</v>
+      </c>
+      <c r="AA285">
+        <v>3.4</v>
+      </c>
+      <c r="AB285">
+        <v>1.65</v>
+      </c>
+      <c r="AC285">
+        <v>1.04</v>
+      </c>
+      <c r="AD285">
+        <v>8.5</v>
+      </c>
+      <c r="AE285">
+        <v>1.33</v>
+      </c>
+      <c r="AF285">
+        <v>3</v>
+      </c>
+      <c r="AG285">
+        <v>2</v>
+      </c>
+      <c r="AH285">
+        <v>1.72</v>
+      </c>
+      <c r="AI285">
+        <v>1.9</v>
+      </c>
+      <c r="AJ285">
+        <v>1.83</v>
+      </c>
+      <c r="AK285">
+        <v>2</v>
+      </c>
+      <c r="AL285">
+        <v>1.29</v>
+      </c>
+      <c r="AM285">
+        <v>1.22</v>
+      </c>
+      <c r="AN285">
+        <v>1.6</v>
+      </c>
+      <c r="AO285">
+        <v>2</v>
+      </c>
+      <c r="AP285">
+        <v>1.5</v>
+      </c>
+      <c r="AQ285">
+        <v>2.06</v>
+      </c>
+      <c r="AR285">
+        <v>1.48</v>
+      </c>
+      <c r="AS285">
+        <v>1.41</v>
+      </c>
+      <c r="AT285">
+        <v>2.89</v>
+      </c>
+      <c r="AU285">
+        <v>4</v>
+      </c>
+      <c r="AV285">
+        <v>4</v>
+      </c>
+      <c r="AW285">
+        <v>9</v>
+      </c>
+      <c r="AX285">
+        <v>3</v>
+      </c>
+      <c r="AY285">
+        <v>13</v>
+      </c>
+      <c r="AZ285">
+        <v>7</v>
+      </c>
+      <c r="BA285">
+        <v>10</v>
+      </c>
+      <c r="BB285">
+        <v>6</v>
+      </c>
+      <c r="BC285">
+        <v>16</v>
+      </c>
+      <c r="BD285">
+        <v>2.63</v>
+      </c>
+      <c r="BE285">
+        <v>9.4</v>
+      </c>
+      <c r="BF285">
+        <v>1.62</v>
+      </c>
+      <c r="BG285">
+        <v>1.2</v>
+      </c>
+      <c r="BH285">
+        <v>4</v>
+      </c>
+      <c r="BI285">
+        <v>1.36</v>
+      </c>
+      <c r="BJ285">
+        <v>2.9</v>
+      </c>
+      <c r="BK285">
+        <v>1.61</v>
+      </c>
+      <c r="BL285">
+        <v>2.24</v>
+      </c>
+      <c r="BM285">
+        <v>2</v>
+      </c>
+      <c r="BN285">
+        <v>1.8</v>
+      </c>
+      <c r="BO285">
+        <v>2.5</v>
+      </c>
+      <c r="BP285">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>6775915</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>71</v>
+      </c>
+      <c r="H286" t="s">
+        <v>74</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>4</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>4</v>
+      </c>
+      <c r="O286" t="s">
+        <v>261</v>
+      </c>
+      <c r="P286" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q286">
+        <v>2.13</v>
+      </c>
+      <c r="R286">
+        <v>2.38</v>
+      </c>
+      <c r="S286">
+        <v>4.65</v>
+      </c>
+      <c r="T286">
+        <v>1.28</v>
+      </c>
+      <c r="U286">
+        <v>3.48</v>
+      </c>
+      <c r="V286">
+        <v>2.34</v>
+      </c>
+      <c r="W286">
+        <v>1.56</v>
+      </c>
+      <c r="X286">
+        <v>5.35</v>
+      </c>
+      <c r="Y286">
+        <v>1.13</v>
+      </c>
+      <c r="Z286">
+        <v>1.62</v>
+      </c>
+      <c r="AA286">
+        <v>4</v>
+      </c>
+      <c r="AB286">
+        <v>4.21</v>
+      </c>
+      <c r="AC286">
+        <v>1.01</v>
+      </c>
+      <c r="AD286">
+        <v>12</v>
+      </c>
+      <c r="AE286">
+        <v>1.15</v>
+      </c>
+      <c r="AF286">
+        <v>4.45</v>
+      </c>
+      <c r="AG286">
+        <v>1.55</v>
+      </c>
+      <c r="AH286">
+        <v>2.29</v>
+      </c>
+      <c r="AI286">
+        <v>1.6</v>
+      </c>
+      <c r="AJ286">
+        <v>2.19</v>
+      </c>
+      <c r="AK286">
+        <v>1.17</v>
+      </c>
+      <c r="AL286">
+        <v>1.21</v>
+      </c>
+      <c r="AM286">
+        <v>2.2</v>
+      </c>
+      <c r="AN286">
+        <v>2.4</v>
+      </c>
+      <c r="AO286">
+        <v>1.47</v>
+      </c>
+      <c r="AP286">
+        <v>2.44</v>
+      </c>
+      <c r="AQ286">
+        <v>1.38</v>
+      </c>
+      <c r="AR286">
+        <v>1.78</v>
+      </c>
+      <c r="AS286">
+        <v>1.38</v>
+      </c>
+      <c r="AT286">
+        <v>3.16</v>
+      </c>
+      <c r="AU286">
+        <v>9</v>
+      </c>
+      <c r="AV286">
+        <v>0</v>
+      </c>
+      <c r="AW286">
+        <v>6</v>
+      </c>
+      <c r="AX286">
+        <v>8</v>
+      </c>
+      <c r="AY286">
+        <v>15</v>
+      </c>
+      <c r="AZ286">
+        <v>8</v>
+      </c>
+      <c r="BA286">
+        <v>7</v>
+      </c>
+      <c r="BB286">
+        <v>5</v>
+      </c>
+      <c r="BC286">
+        <v>12</v>
+      </c>
+      <c r="BD286">
+        <v>1.63</v>
+      </c>
+      <c r="BE286">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF286">
+        <v>2.57</v>
+      </c>
+      <c r="BG286">
+        <v>1.13</v>
+      </c>
+      <c r="BH286">
+        <v>5</v>
+      </c>
+      <c r="BI286">
+        <v>1.21</v>
+      </c>
+      <c r="BJ286">
+        <v>3.74</v>
+      </c>
+      <c r="BK286">
+        <v>1.39</v>
+      </c>
+      <c r="BL286">
+        <v>2.67</v>
+      </c>
+      <c r="BM286">
+        <v>1.88</v>
+      </c>
+      <c r="BN286">
+        <v>1.92</v>
+      </c>
+      <c r="BO286">
+        <v>2.02</v>
+      </c>
+      <c r="BP286">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -802,6 +802,9 @@
     <t>['17', '21', '87', '90+2']</t>
   </si>
   <si>
+    <t>['35', '45+1']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1118,6 +1121,9 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['65', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1944,7 +1950,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2562,7 +2568,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2974,7 +2980,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3052,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>1.47</v>
@@ -3467,7 +3473,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3592,7 +3598,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3798,7 +3804,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -3879,7 +3885,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4416,7 +4422,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4494,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -6760,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>2.06</v>
@@ -6969,7 +6975,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ27">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.18</v>
@@ -7300,7 +7306,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7712,7 +7718,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7918,7 +7924,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8411,7 +8417,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8948,7 +8954,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9026,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ37">
         <v>1.63</v>
@@ -9154,7 +9160,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9566,7 +9572,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -10390,7 +10396,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10596,7 +10602,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10802,7 +10808,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10880,10 +10886,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -11008,7 +11014,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11086,7 +11092,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ47">
         <v>1.19</v>
@@ -11214,7 +11220,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11420,7 +11426,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11626,7 +11632,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11832,7 +11838,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12119,7 +12125,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12244,7 +12250,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12450,7 +12456,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12656,7 +12662,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -13274,7 +13280,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13686,7 +13692,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -13767,7 +13773,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -14098,7 +14104,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14304,7 +14310,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14382,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
         <v>0.38</v>
@@ -14922,7 +14928,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15003,7 +15009,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ66">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR66">
         <v>1.72</v>
@@ -15334,7 +15340,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15540,7 +15546,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15746,7 +15752,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16158,7 +16164,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16364,7 +16370,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16442,7 +16448,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16570,7 +16576,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16982,7 +16988,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17266,7 +17272,7 @@
         <v>0.25</v>
       </c>
       <c r="AP77">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>0.88</v>
@@ -17394,7 +17400,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17806,7 +17812,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -18012,7 +18018,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18093,7 +18099,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ81">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR81">
         <v>1.38</v>
@@ -18836,7 +18842,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -19329,7 +19335,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ87">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -19454,7 +19460,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19532,7 +19538,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ88">
         <v>1.44</v>
@@ -19866,7 +19872,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20484,7 +20490,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -21102,7 +21108,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21514,7 +21520,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21595,7 +21601,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -22004,7 +22010,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ100">
         <v>1.06</v>
@@ -22210,7 +22216,7 @@
         <v>1.17</v>
       </c>
       <c r="AP101">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101">
         <v>0.9399999999999999</v>
@@ -22338,7 +22344,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22544,7 +22550,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22750,7 +22756,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22831,7 +22837,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ104">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -23368,7 +23374,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23780,7 +23786,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24067,7 +24073,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR110">
         <v>1.24</v>
@@ -24192,7 +24198,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24604,7 +24610,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -25094,7 +25100,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ115">
         <v>1.63</v>
@@ -25921,7 +25927,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ119">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR119">
         <v>1.56</v>
@@ -26539,7 +26545,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ122">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR122">
         <v>1.67</v>
@@ -26742,7 +26748,7 @@
         <v>1.14</v>
       </c>
       <c r="AP123">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ123">
         <v>1.31</v>
@@ -27282,7 +27288,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27360,7 +27366,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ126">
         <v>1.44</v>
@@ -27488,7 +27494,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -27981,7 +27987,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR129">
         <v>1.22</v>
@@ -28518,7 +28524,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28724,7 +28730,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28930,7 +28936,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29548,7 +29554,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -30372,7 +30378,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30450,7 +30456,7 @@
         <v>0.57</v>
       </c>
       <c r="AP141">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ141">
         <v>0.63</v>
@@ -30578,7 +30584,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -30990,7 +30996,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31402,7 +31408,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31483,7 +31489,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31608,7 +31614,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31814,7 +31820,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -31895,7 +31901,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR148">
         <v>1.29</v>
@@ -32098,7 +32104,7 @@
         <v>0.63</v>
       </c>
       <c r="AP149">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ149">
         <v>0.38</v>
@@ -32226,7 +32232,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32432,7 +32438,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33462,7 +33468,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33540,7 +33546,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ156">
         <v>1.19</v>
@@ -33668,7 +33674,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33874,7 +33880,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34698,7 +34704,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -35110,7 +35116,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35728,7 +35734,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -35809,7 +35815,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ167">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR167">
         <v>1.52</v>
@@ -36346,7 +36352,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36424,7 +36430,7 @@
         <v>0.78</v>
       </c>
       <c r="AP170">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -36964,7 +36970,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37042,7 +37048,7 @@
         <v>2.11</v>
       </c>
       <c r="AP173">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ173">
         <v>2</v>
@@ -37170,7 +37176,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37582,7 +37588,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37788,7 +37794,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38281,7 +38287,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ179">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR179">
         <v>1.54</v>
@@ -38406,7 +38412,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38487,7 +38493,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ180">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR180">
         <v>1.42</v>
@@ -38818,7 +38824,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39102,7 +39108,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ183">
         <v>1.31</v>
@@ -39436,7 +39442,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39848,7 +39854,7 @@
         <v>155</v>
       </c>
       <c r="P187" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -40341,7 +40347,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ189">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40466,7 +40472,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -41084,7 +41090,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41290,7 +41296,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41496,7 +41502,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41908,7 +41914,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41986,7 +41992,7 @@
         <v>2.1</v>
       </c>
       <c r="AP197">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ197">
         <v>2.13</v>
@@ -42114,7 +42120,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42732,7 +42738,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42938,7 +42944,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43222,7 +43228,7 @@
         <v>0.64</v>
       </c>
       <c r="AP203">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ203">
         <v>0.63</v>
@@ -43556,7 +43562,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -43637,7 +43643,7 @@
         <v>1</v>
       </c>
       <c r="AQ205">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR205">
         <v>1.34</v>
@@ -44380,7 +44386,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44586,7 +44592,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -44998,7 +45004,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45410,7 +45416,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -45900,10 +45906,10 @@
         <v>0.91</v>
       </c>
       <c r="AP216">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ216">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR216">
         <v>1.56</v>
@@ -46028,7 +46034,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -46930,7 +46936,7 @@
         <v>2</v>
       </c>
       <c r="AP221">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ221">
         <v>2</v>
@@ -47345,7 +47351,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ223">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR223">
         <v>1.68</v>
@@ -47470,7 +47476,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47676,7 +47682,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -48500,7 +48506,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48706,7 +48712,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -48787,7 +48793,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ230">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR230">
         <v>1.39</v>
@@ -49324,7 +49330,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49530,7 +49536,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -49814,7 +49820,7 @@
         <v>0.5</v>
       </c>
       <c r="AP235">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ235">
         <v>0.63</v>
@@ -50972,7 +50978,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51384,7 +51390,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51462,7 +51468,7 @@
         <v>1.15</v>
       </c>
       <c r="AP243">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ243">
         <v>1.19</v>
@@ -51590,7 +51596,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51671,7 +51677,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ244">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR244">
         <v>1.42</v>
@@ -52414,7 +52420,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52698,7 +52704,7 @@
         <v>1.46</v>
       </c>
       <c r="AP249">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ249">
         <v>1.47</v>
@@ -52826,7 +52832,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -52907,7 +52913,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ250">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR250">
         <v>1.59</v>
@@ -53238,7 +53244,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53444,7 +53450,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -54268,7 +54274,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54346,7 +54352,7 @@
         <v>2</v>
       </c>
       <c r="AP257">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ257">
         <v>2.13</v>
@@ -54474,7 +54480,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -55173,7 +55179,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ261">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR261">
         <v>1.41</v>
@@ -55504,7 +55510,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55710,7 +55716,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55791,7 +55797,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ264">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR264">
         <v>1.5</v>
@@ -55916,7 +55922,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56328,7 +56334,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56534,7 +56540,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56740,7 +56746,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56818,7 +56824,7 @@
         <v>1.93</v>
       </c>
       <c r="AP269">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ269">
         <v>2.06</v>
@@ -56946,7 +56952,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57152,7 +57158,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57358,7 +57364,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57564,7 +57570,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57770,7 +57776,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -57976,7 +57982,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58182,7 +58188,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58594,7 +58600,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58800,7 +58806,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -59006,7 +59012,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -60036,7 +60042,7 @@
         <v>88</v>
       </c>
       <c r="P285" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60399,6 +60405,418 @@
       </c>
       <c r="BP286">
         <v>1.78</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>6775920</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45417.47916666666</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>83</v>
+      </c>
+      <c r="H287" t="s">
+        <v>86</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287" t="s">
+        <v>88</v>
+      </c>
+      <c r="P287" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q287">
+        <v>3</v>
+      </c>
+      <c r="R287">
+        <v>2.05</v>
+      </c>
+      <c r="S287">
+        <v>3.6</v>
+      </c>
+      <c r="T287">
+        <v>1.42</v>
+      </c>
+      <c r="U287">
+        <v>2.62</v>
+      </c>
+      <c r="V287">
+        <v>2.9</v>
+      </c>
+      <c r="W287">
+        <v>1.36</v>
+      </c>
+      <c r="X287">
+        <v>7</v>
+      </c>
+      <c r="Y287">
+        <v>1.07</v>
+      </c>
+      <c r="Z287">
+        <v>2.2</v>
+      </c>
+      <c r="AA287">
+        <v>3.2</v>
+      </c>
+      <c r="AB287">
+        <v>2.96</v>
+      </c>
+      <c r="AC287">
+        <v>1.04</v>
+      </c>
+      <c r="AD287">
+        <v>8.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.33</v>
+      </c>
+      <c r="AF287">
+        <v>3</v>
+      </c>
+      <c r="AG287">
+        <v>2.06</v>
+      </c>
+      <c r="AH287">
+        <v>1.68</v>
+      </c>
+      <c r="AI287">
+        <v>1.8</v>
+      </c>
+      <c r="AJ287">
+        <v>1.91</v>
+      </c>
+      <c r="AK287">
+        <v>1.42</v>
+      </c>
+      <c r="AL287">
+        <v>1.33</v>
+      </c>
+      <c r="AM287">
+        <v>1.55</v>
+      </c>
+      <c r="AN287">
+        <v>0.93</v>
+      </c>
+      <c r="AO287">
+        <v>1.27</v>
+      </c>
+      <c r="AP287">
+        <v>0.88</v>
+      </c>
+      <c r="AQ287">
+        <v>1.38</v>
+      </c>
+      <c r="AR287">
+        <v>1.54</v>
+      </c>
+      <c r="AS287">
+        <v>1.25</v>
+      </c>
+      <c r="AT287">
+        <v>2.79</v>
+      </c>
+      <c r="AU287">
+        <v>2</v>
+      </c>
+      <c r="AV287">
+        <v>5</v>
+      </c>
+      <c r="AW287">
+        <v>17</v>
+      </c>
+      <c r="AX287">
+        <v>4</v>
+      </c>
+      <c r="AY287">
+        <v>19</v>
+      </c>
+      <c r="AZ287">
+        <v>9</v>
+      </c>
+      <c r="BA287">
+        <v>2</v>
+      </c>
+      <c r="BB287">
+        <v>10</v>
+      </c>
+      <c r="BC287">
+        <v>12</v>
+      </c>
+      <c r="BD287">
+        <v>1.86</v>
+      </c>
+      <c r="BE287">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF287">
+        <v>2.17</v>
+      </c>
+      <c r="BG287">
+        <v>1.12</v>
+      </c>
+      <c r="BH287">
+        <v>5.36</v>
+      </c>
+      <c r="BI287">
+        <v>1.25</v>
+      </c>
+      <c r="BJ287">
+        <v>3.52</v>
+      </c>
+      <c r="BK287">
+        <v>1.44</v>
+      </c>
+      <c r="BL287">
+        <v>2.51</v>
+      </c>
+      <c r="BM287">
+        <v>1.95</v>
+      </c>
+      <c r="BN287">
+        <v>1.85</v>
+      </c>
+      <c r="BO287">
+        <v>2.19</v>
+      </c>
+      <c r="BP287">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>6775916</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45417.58333333334</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>76</v>
+      </c>
+      <c r="H288" t="s">
+        <v>70</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>4</v>
+      </c>
+      <c r="O288" t="s">
+        <v>262</v>
+      </c>
+      <c r="P288" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q288">
+        <v>3</v>
+      </c>
+      <c r="R288">
+        <v>2.1</v>
+      </c>
+      <c r="S288">
+        <v>3.2</v>
+      </c>
+      <c r="T288">
+        <v>1.4</v>
+      </c>
+      <c r="U288">
+        <v>2.75</v>
+      </c>
+      <c r="V288">
+        <v>2.75</v>
+      </c>
+      <c r="W288">
+        <v>1.4</v>
+      </c>
+      <c r="X288">
+        <v>6.5</v>
+      </c>
+      <c r="Y288">
+        <v>1.1</v>
+      </c>
+      <c r="Z288">
+        <v>2.27</v>
+      </c>
+      <c r="AA288">
+        <v>3.15</v>
+      </c>
+      <c r="AB288">
+        <v>2.72</v>
+      </c>
+      <c r="AC288">
+        <v>1.05</v>
+      </c>
+      <c r="AD288">
+        <v>7.8</v>
+      </c>
+      <c r="AE288">
+        <v>1.27</v>
+      </c>
+      <c r="AF288">
+        <v>3.4</v>
+      </c>
+      <c r="AG288">
+        <v>2</v>
+      </c>
+      <c r="AH288">
+        <v>1.84</v>
+      </c>
+      <c r="AI288">
+        <v>1.73</v>
+      </c>
+      <c r="AJ288">
+        <v>2</v>
+      </c>
+      <c r="AK288">
+        <v>1.34</v>
+      </c>
+      <c r="AL288">
+        <v>1.28</v>
+      </c>
+      <c r="AM288">
+        <v>1.44</v>
+      </c>
+      <c r="AN288">
+        <v>1.27</v>
+      </c>
+      <c r="AO288">
+        <v>1.2</v>
+      </c>
+      <c r="AP288">
+        <v>1.25</v>
+      </c>
+      <c r="AQ288">
+        <v>1.19</v>
+      </c>
+      <c r="AR288">
+        <v>1.45</v>
+      </c>
+      <c r="AS288">
+        <v>1.31</v>
+      </c>
+      <c r="AT288">
+        <v>2.76</v>
+      </c>
+      <c r="AU288">
+        <v>9</v>
+      </c>
+      <c r="AV288">
+        <v>4</v>
+      </c>
+      <c r="AW288">
+        <v>0</v>
+      </c>
+      <c r="AX288">
+        <v>3</v>
+      </c>
+      <c r="AY288">
+        <v>9</v>
+      </c>
+      <c r="AZ288">
+        <v>7</v>
+      </c>
+      <c r="BA288">
+        <v>4</v>
+      </c>
+      <c r="BB288">
+        <v>3</v>
+      </c>
+      <c r="BC288">
+        <v>7</v>
+      </c>
+      <c r="BD288">
+        <v>1.68</v>
+      </c>
+      <c r="BE288">
+        <v>9.1</v>
+      </c>
+      <c r="BF288">
+        <v>2.52</v>
+      </c>
+      <c r="BG288">
+        <v>1.29</v>
+      </c>
+      <c r="BH288">
+        <v>3.4</v>
+      </c>
+      <c r="BI288">
+        <v>1.48</v>
+      </c>
+      <c r="BJ288">
+        <v>2.5</v>
+      </c>
+      <c r="BK288">
+        <v>2</v>
+      </c>
+      <c r="BL288">
+        <v>1.8</v>
+      </c>
+      <c r="BM288">
+        <v>2.2</v>
+      </c>
+      <c r="BN288">
+        <v>1.64</v>
+      </c>
+      <c r="BO288">
+        <v>2.8</v>
+      </c>
+      <c r="BP288">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="372">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,9 @@
     <t>['35', '45+1']</t>
   </si>
   <si>
+    <t>['32', '68', '77']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1124,6 +1127,9 @@
   </si>
   <si>
     <t>['65', '90+1']</t>
+  </si>
+  <si>
+    <t>['17', '43', '62']</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1950,7 +1956,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2234,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ4">
         <v>0.63</v>
@@ -2568,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2980,7 +2986,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3061,7 +3067,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3598,7 +3604,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3804,7 +3810,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -4422,7 +4428,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5945,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>1.62</v>
@@ -6972,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ27">
         <v>1.38</v>
@@ -7306,7 +7312,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7718,7 +7724,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7924,7 +7930,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8954,7 +8960,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9160,7 +9166,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9444,7 +9450,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ39">
         <v>0.63</v>
@@ -9572,7 +9578,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -10271,7 +10277,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR43">
         <v>1.03</v>
@@ -10396,7 +10402,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10602,7 +10608,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10808,7 +10814,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11014,7 +11020,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11220,7 +11226,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11426,7 +11432,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11507,7 +11513,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ49">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR49">
         <v>1.11</v>
@@ -11632,7 +11638,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11838,7 +11844,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12250,7 +12256,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12456,7 +12462,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12662,7 +12668,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -13280,7 +13286,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13692,7 +13698,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -14104,7 +14110,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14310,7 +14316,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14594,7 +14600,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -14803,7 +14809,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.54</v>
@@ -14928,7 +14934,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15340,7 +15346,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15546,7 +15552,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15752,7 +15758,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16164,7 +16170,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16370,7 +16376,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16576,7 +16582,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16988,7 +16994,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17400,7 +17406,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17684,7 +17690,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -17812,7 +17818,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -18018,7 +18024,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18842,7 +18848,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -19460,7 +19466,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19747,7 +19753,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR89">
         <v>1.49</v>
@@ -19872,7 +19878,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20490,7 +20496,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -21108,7 +21114,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21186,7 +21192,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -21520,7 +21526,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -22344,7 +22350,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22550,7 +22556,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22756,7 +22762,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23040,7 +23046,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ105">
         <v>1.19</v>
@@ -23374,7 +23380,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23786,7 +23792,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23867,7 +23873,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR109">
         <v>1.24</v>
@@ -24198,7 +24204,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24610,7 +24616,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -26542,7 +26548,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ122">
         <v>1.19</v>
@@ -27288,7 +27294,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27494,7 +27500,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -27575,7 +27581,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ127">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.47</v>
@@ -28524,7 +28530,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28730,7 +28736,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28936,7 +28942,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29554,7 +29560,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -30253,7 +30259,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ140">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30378,7 +30384,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30584,7 +30590,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -30996,7 +31002,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31074,7 +31080,7 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ144">
         <v>1.31</v>
@@ -31408,7 +31414,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31614,7 +31620,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31820,7 +31826,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32232,7 +32238,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32438,7 +32444,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33468,7 +33474,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33674,7 +33680,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33880,7 +33886,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34704,7 +34710,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -35116,7 +35122,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35194,7 +35200,7 @@
         <v>2.11</v>
       </c>
       <c r="AP164">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
         <v>2.06</v>
@@ -35403,7 +35409,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ165">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR165">
         <v>1.61</v>
@@ -35734,7 +35740,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -36352,7 +36358,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36970,7 +36976,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37176,7 +37182,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37588,7 +37594,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37794,7 +37800,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38412,7 +38418,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38824,7 +38830,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39314,7 +39320,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ184">
         <v>0.9399999999999999</v>
@@ -39442,7 +39448,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39854,7 +39860,7 @@
         <v>155</v>
       </c>
       <c r="P187" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39935,7 +39941,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ187">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR187">
         <v>1.41</v>
@@ -40472,7 +40478,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -41090,7 +41096,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41296,7 +41302,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41502,7 +41508,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41914,7 +41920,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42120,7 +42126,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42738,7 +42744,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42944,7 +42950,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43562,7 +43568,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -44052,7 +44058,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ207">
         <v>1.19</v>
@@ -44386,7 +44392,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44467,7 +44473,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR209">
         <v>1.32</v>
@@ -44592,7 +44598,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -45004,7 +45010,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45416,7 +45422,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -46034,7 +46040,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -47476,7 +47482,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47682,7 +47688,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -47966,7 +47972,7 @@
         <v>0.42</v>
       </c>
       <c r="AP226">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ226">
         <v>0.38</v>
@@ -48506,7 +48512,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48712,7 +48718,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -49330,7 +49336,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49536,7 +49542,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -49617,7 +49623,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ234">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR234">
         <v>1.43</v>
@@ -50978,7 +50984,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51056,7 +51062,7 @@
         <v>2.08</v>
       </c>
       <c r="AP241">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ241">
         <v>2</v>
@@ -51390,7 +51396,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51596,7 +51602,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -52420,7 +52426,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52707,7 +52713,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ249">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR249">
         <v>1.56</v>
@@ -52832,7 +52838,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53244,7 +53250,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53450,7 +53456,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -54274,7 +54280,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54480,7 +54486,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -55510,7 +55516,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55716,7 +55722,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55922,7 +55928,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56334,7 +56340,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56540,7 +56546,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56621,7 +56627,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ268">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR268">
         <v>1.41</v>
@@ -56746,7 +56752,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56952,7 +56958,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57158,7 +57164,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57236,7 +57242,7 @@
         <v>1.36</v>
       </c>
       <c r="AP271">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ271">
         <v>1.38</v>
@@ -57364,7 +57370,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57570,7 +57576,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57776,7 +57782,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -57982,7 +57988,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58188,7 +58194,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58600,7 +58606,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58806,7 +58812,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -59012,7 +59018,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -60042,7 +60048,7 @@
         <v>88</v>
       </c>
       <c r="P285" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60660,7 +60666,7 @@
         <v>262</v>
       </c>
       <c r="P288" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -60753,22 +60759,22 @@
         <v>2.76</v>
       </c>
       <c r="AU288">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV288">
+        <v>7</v>
+      </c>
+      <c r="AW288">
         <v>4</v>
       </c>
-      <c r="AW288">
-        <v>0</v>
-      </c>
       <c r="AX288">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY288">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ288">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BA288">
         <v>4</v>
@@ -60817,6 +60823,212 @@
       </c>
       <c r="BP288">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6775917</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45418.67708333334</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>72</v>
+      </c>
+      <c r="H289" t="s">
+        <v>80</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>2</v>
+      </c>
+      <c r="K289">
+        <v>3</v>
+      </c>
+      <c r="L289">
+        <v>3</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
+        <v>6</v>
+      </c>
+      <c r="O289" t="s">
+        <v>263</v>
+      </c>
+      <c r="P289" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q289">
+        <v>2.03</v>
+      </c>
+      <c r="R289">
+        <v>2.42</v>
+      </c>
+      <c r="S289">
+        <v>6.5</v>
+      </c>
+      <c r="T289">
+        <v>1.36</v>
+      </c>
+      <c r="U289">
+        <v>3.16</v>
+      </c>
+      <c r="V289">
+        <v>2.8</v>
+      </c>
+      <c r="W289">
+        <v>1.44</v>
+      </c>
+      <c r="X289">
+        <v>6.7</v>
+      </c>
+      <c r="Y289">
+        <v>1.09</v>
+      </c>
+      <c r="Z289">
+        <v>1.55</v>
+      </c>
+      <c r="AA289">
+        <v>3.7</v>
+      </c>
+      <c r="AB289">
+        <v>4.85</v>
+      </c>
+      <c r="AC289">
+        <v>1.01</v>
+      </c>
+      <c r="AD289">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE289">
+        <v>1.24</v>
+      </c>
+      <c r="AF289">
+        <v>3.48</v>
+      </c>
+      <c r="AG289">
+        <v>1.87</v>
+      </c>
+      <c r="AH289">
+        <v>1.97</v>
+      </c>
+      <c r="AI289">
+        <v>1.9</v>
+      </c>
+      <c r="AJ289">
+        <v>1.8</v>
+      </c>
+      <c r="AK289">
+        <v>1.11</v>
+      </c>
+      <c r="AL289">
+        <v>1.22</v>
+      </c>
+      <c r="AM289">
+        <v>2.44</v>
+      </c>
+      <c r="AN289">
+        <v>1.87</v>
+      </c>
+      <c r="AO289">
+        <v>1.47</v>
+      </c>
+      <c r="AP289">
+        <v>1.81</v>
+      </c>
+      <c r="AQ289">
+        <v>1.44</v>
+      </c>
+      <c r="AR289">
+        <v>1.64</v>
+      </c>
+      <c r="AS289">
+        <v>1.14</v>
+      </c>
+      <c r="AT289">
+        <v>2.78</v>
+      </c>
+      <c r="AU289">
+        <v>8</v>
+      </c>
+      <c r="AV289">
+        <v>6</v>
+      </c>
+      <c r="AW289">
+        <v>4</v>
+      </c>
+      <c r="AX289">
+        <v>3</v>
+      </c>
+      <c r="AY289">
+        <v>12</v>
+      </c>
+      <c r="AZ289">
+        <v>9</v>
+      </c>
+      <c r="BA289">
+        <v>7</v>
+      </c>
+      <c r="BB289">
+        <v>3</v>
+      </c>
+      <c r="BC289">
+        <v>10</v>
+      </c>
+      <c r="BD289">
+        <v>1.36</v>
+      </c>
+      <c r="BE289">
+        <v>10.25</v>
+      </c>
+      <c r="BF289">
+        <v>3.66</v>
+      </c>
+      <c r="BG289">
+        <v>1.2</v>
+      </c>
+      <c r="BH289">
+        <v>4</v>
+      </c>
+      <c r="BI289">
+        <v>1.28</v>
+      </c>
+      <c r="BJ289">
+        <v>3.34</v>
+      </c>
+      <c r="BK289">
+        <v>1.51</v>
+      </c>
+      <c r="BL289">
+        <v>2.37</v>
+      </c>
+      <c r="BM289">
+        <v>1.9</v>
+      </c>
+      <c r="BN289">
+        <v>1.8</v>
+      </c>
+      <c r="BO289">
+        <v>2.45</v>
+      </c>
+      <c r="BP289">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -811,6 +811,12 @@
     <t>['35', '42']</t>
   </si>
   <si>
+    <t>['17', '44']</t>
+  </si>
+  <si>
+    <t>['65', '89']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1497,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1962,7 +1968,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2580,7 +2586,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2992,7 +2998,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3279,7 +3285,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ9">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3610,7 +3616,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3816,7 +3822,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -4434,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4512,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -4927,7 +4933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5130,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ18">
         <v>1.63</v>
@@ -5545,7 +5551,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR20">
         <v>1.7</v>
@@ -6163,7 +6169,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ23">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -7318,7 +7324,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7730,7 +7736,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7936,7 +7942,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8632,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ35">
         <v>1.06</v>
@@ -8966,7 +8972,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9044,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.63</v>
@@ -9172,7 +9178,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9584,7 +9590,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -9871,7 +9877,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ41">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -10077,7 +10083,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -10408,7 +10414,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10614,7 +10620,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10820,7 +10826,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11026,7 +11032,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11104,7 +11110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -11232,7 +11238,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11438,7 +11444,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11644,7 +11650,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11850,7 +11856,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12262,7 +12268,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12468,7 +12474,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12674,7 +12680,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -12752,7 +12758,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
         <v>0.63</v>
@@ -13292,7 +13298,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13704,7 +13710,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -14116,7 +14122,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14322,7 +14328,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14403,7 +14409,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR63">
         <v>1.15</v>
@@ -14609,7 +14615,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR64">
         <v>1.7</v>
@@ -14940,7 +14946,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15018,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66">
         <v>1.19</v>
@@ -15352,7 +15358,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15558,7 +15564,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15764,7 +15770,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16176,7 +16182,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16382,7 +16388,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16460,7 +16466,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16588,7 +16594,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16875,7 +16881,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR75">
         <v>1.26</v>
@@ -17000,7 +17006,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17287,7 +17293,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR77">
         <v>1.27</v>
@@ -17412,7 +17418,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17824,7 +17830,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -18030,7 +18036,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18854,7 +18860,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -19472,7 +19478,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19550,7 +19556,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>1.44</v>
@@ -19756,7 +19762,7 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
         <v>1.44</v>
@@ -19884,7 +19890,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20502,7 +20508,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20789,7 +20795,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ94">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR94">
         <v>1.43</v>
@@ -21120,7 +21126,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21407,7 +21413,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR97">
         <v>1.46</v>
@@ -21532,7 +21538,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -22228,7 +22234,7 @@
         <v>1.17</v>
       </c>
       <c r="AP101">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>0.9399999999999999</v>
@@ -22356,7 +22362,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22562,7 +22568,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22768,7 +22774,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23258,7 +23264,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ106">
         <v>1.31</v>
@@ -23386,7 +23392,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23798,7 +23804,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24210,7 +24216,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24497,7 +24503,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ112">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR112">
         <v>1.52</v>
@@ -24622,7 +24628,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -24909,7 +24915,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ114">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR114">
         <v>1.42</v>
@@ -26760,7 +26766,7 @@
         <v>1.14</v>
       </c>
       <c r="AP123">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>1.31</v>
@@ -27300,7 +27306,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27506,7 +27512,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -27790,7 +27796,7 @@
         <v>0.57</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128">
         <v>0.63</v>
@@ -28411,7 +28417,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ131">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR131">
         <v>1.65</v>
@@ -28536,7 +28542,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28742,7 +28748,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28948,7 +28954,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29441,7 +29447,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29566,7 +29572,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -30390,7 +30396,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30596,7 +30602,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -31008,7 +31014,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31420,7 +31426,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31626,7 +31632,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31832,7 +31838,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32116,10 +32122,10 @@
         <v>0.63</v>
       </c>
       <c r="AP149">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR149">
         <v>1.48</v>
@@ -32244,7 +32250,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32450,7 +32456,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33352,10 +33358,10 @@
         <v>0.25</v>
       </c>
       <c r="AP155">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>1.26</v>
@@ -33480,7 +33486,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33558,7 +33564,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
         <v>1.19</v>
@@ -33686,7 +33692,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33892,7 +33898,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34591,7 +34597,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ161">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR161">
         <v>1.44</v>
@@ -34716,7 +34722,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -34794,7 +34800,7 @@
         <v>2</v>
       </c>
       <c r="AP162">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ162">
         <v>2</v>
@@ -35128,7 +35134,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35746,7 +35752,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -36364,7 +36370,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36651,7 +36657,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ171">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR171">
         <v>1.5</v>
@@ -36982,7 +36988,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37060,7 +37066,7 @@
         <v>2.11</v>
       </c>
       <c r="AP173">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
         <v>2</v>
@@ -37188,7 +37194,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37600,7 +37606,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37678,7 +37684,7 @@
         <v>2.33</v>
       </c>
       <c r="AP176">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ176">
         <v>2.13</v>
@@ -37806,7 +37812,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38424,7 +38430,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38711,7 +38717,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ181">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR181">
         <v>1.37</v>
@@ -38836,7 +38842,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39454,7 +39460,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39866,7 +39872,7 @@
         <v>155</v>
       </c>
       <c r="P187" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -40153,7 +40159,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ188">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR188">
         <v>1.45</v>
@@ -40484,7 +40490,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -40768,7 +40774,7 @@
         <v>1.2</v>
       </c>
       <c r="AP191">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ191">
         <v>1.29</v>
@@ -41102,7 +41108,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41308,7 +41314,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41514,7 +41520,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41926,7 +41932,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42004,7 +42010,7 @@
         <v>2.1</v>
       </c>
       <c r="AP197">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ197">
         <v>2.13</v>
@@ -42132,7 +42138,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42750,7 +42756,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42831,7 +42837,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ201">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR201">
         <v>1.73</v>
@@ -42956,7 +42962,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43574,7 +43580,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -43861,7 +43867,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ206">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR206">
         <v>1.67</v>
@@ -44398,7 +44404,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44604,7 +44610,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -45016,7 +45022,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45094,7 +45100,7 @@
         <v>1.09</v>
       </c>
       <c r="AP212">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ212">
         <v>1.38</v>
@@ -45428,7 +45434,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -45918,7 +45924,7 @@
         <v>0.91</v>
       </c>
       <c r="AP216">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ216">
         <v>1.19</v>
@@ -46046,7 +46052,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -46539,7 +46545,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ219">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR219">
         <v>1.44</v>
@@ -47488,7 +47494,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47694,7 +47700,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -47981,7 +47987,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ226">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR226">
         <v>1.62</v>
@@ -48184,7 +48190,7 @@
         <v>1.42</v>
       </c>
       <c r="AP227">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ227">
         <v>1.44</v>
@@ -48518,7 +48524,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48724,7 +48730,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -49342,7 +49348,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49548,7 +49554,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -49832,7 +49838,7 @@
         <v>0.5</v>
       </c>
       <c r="AP235">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ235">
         <v>0.63</v>
@@ -50041,7 +50047,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ236">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR236">
         <v>1.4</v>
@@ -50990,7 +50996,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51277,7 +51283,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ242">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR242">
         <v>1.42</v>
@@ -51402,7 +51408,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51608,7 +51614,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -52432,7 +52438,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52716,7 +52722,7 @@
         <v>1.46</v>
       </c>
       <c r="AP249">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ249">
         <v>1.44</v>
@@ -52844,7 +52850,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53128,7 +53134,7 @@
         <v>2</v>
       </c>
       <c r="AP251">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ251">
         <v>2.06</v>
@@ -53256,7 +53262,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53462,7 +53468,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -54161,7 +54167,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ256">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR256">
         <v>1.44</v>
@@ -54286,7 +54292,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54492,7 +54498,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -54779,7 +54785,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ259">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR259">
         <v>1.42</v>
@@ -55522,7 +55528,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55728,7 +55734,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55934,7 +55940,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56012,7 +56018,7 @@
         <v>0.86</v>
       </c>
       <c r="AP265">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ265">
         <v>0.9399999999999999</v>
@@ -56346,7 +56352,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56552,7 +56558,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56758,7 +56764,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56836,7 +56842,7 @@
         <v>1.93</v>
       </c>
       <c r="AP269">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ269">
         <v>2.06</v>
@@ -56964,7 +56970,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57170,7 +57176,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57376,7 +57382,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57457,7 +57463,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ272">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR272">
         <v>1.29</v>
@@ -57582,7 +57588,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57788,7 +57794,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -57869,7 +57875,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ274">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR274">
         <v>1.49</v>
@@ -57994,7 +58000,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58200,7 +58206,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58278,7 +58284,7 @@
         <v>1.07</v>
       </c>
       <c r="AP276">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ276">
         <v>1.19</v>
@@ -58612,7 +58618,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58818,7 +58824,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -59024,7 +59030,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -60054,7 +60060,7 @@
         <v>88</v>
       </c>
       <c r="P285" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60544,7 +60550,7 @@
         <v>1.27</v>
       </c>
       <c r="AP287">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ287">
         <v>1.38</v>
@@ -60672,7 +60678,7 @@
         <v>262</v>
       </c>
       <c r="P288" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -60878,7 +60884,7 @@
         <v>263</v>
       </c>
       <c r="P289" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q289">
         <v>2.03</v>
@@ -61084,7 +61090,7 @@
         <v>264</v>
       </c>
       <c r="P290" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q290">
         <v>3</v>
@@ -61241,6 +61247,418 @@
       </c>
       <c r="BP290">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6775928</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>86</v>
+      </c>
+      <c r="H291" t="s">
+        <v>85</v>
+      </c>
+      <c r="I291">
+        <v>2</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>2</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>265</v>
+      </c>
+      <c r="P291" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q291">
+        <v>3.44</v>
+      </c>
+      <c r="R291">
+        <v>2.13</v>
+      </c>
+      <c r="S291">
+        <v>2.91</v>
+      </c>
+      <c r="T291">
+        <v>1.38</v>
+      </c>
+      <c r="U291">
+        <v>2.9</v>
+      </c>
+      <c r="V291">
+        <v>2.74</v>
+      </c>
+      <c r="W291">
+        <v>1.42</v>
+      </c>
+      <c r="X291">
+        <v>6.85</v>
+      </c>
+      <c r="Y291">
+        <v>1.08</v>
+      </c>
+      <c r="Z291">
+        <v>2.7</v>
+      </c>
+      <c r="AA291">
+        <v>3.1</v>
+      </c>
+      <c r="AB291">
+        <v>2.31</v>
+      </c>
+      <c r="AC291">
+        <v>1.01</v>
+      </c>
+      <c r="AD291">
+        <v>9.4</v>
+      </c>
+      <c r="AE291">
+        <v>1.25</v>
+      </c>
+      <c r="AF291">
+        <v>3.42</v>
+      </c>
+      <c r="AG291">
+        <v>2</v>
+      </c>
+      <c r="AH291">
+        <v>1.86</v>
+      </c>
+      <c r="AI291">
+        <v>1.68</v>
+      </c>
+      <c r="AJ291">
+        <v>2.06</v>
+      </c>
+      <c r="AK291">
+        <v>1.56</v>
+      </c>
+      <c r="AL291">
+        <v>1.29</v>
+      </c>
+      <c r="AM291">
+        <v>1.4</v>
+      </c>
+      <c r="AN291">
+        <v>1.38</v>
+      </c>
+      <c r="AO291">
+        <v>0.38</v>
+      </c>
+      <c r="AP291">
+        <v>1.47</v>
+      </c>
+      <c r="AQ291">
+        <v>0.35</v>
+      </c>
+      <c r="AR291">
+        <v>1.37</v>
+      </c>
+      <c r="AS291">
+        <v>1.19</v>
+      </c>
+      <c r="AT291">
+        <v>2.56</v>
+      </c>
+      <c r="AU291">
+        <v>5</v>
+      </c>
+      <c r="AV291">
+        <v>5</v>
+      </c>
+      <c r="AW291">
+        <v>7</v>
+      </c>
+      <c r="AX291">
+        <v>10</v>
+      </c>
+      <c r="AY291">
+        <v>12</v>
+      </c>
+      <c r="AZ291">
+        <v>15</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>12</v>
+      </c>
+      <c r="BC291">
+        <v>16</v>
+      </c>
+      <c r="BD291">
+        <v>1.8</v>
+      </c>
+      <c r="BE291">
+        <v>9.4</v>
+      </c>
+      <c r="BF291">
+        <v>2.33</v>
+      </c>
+      <c r="BG291">
+        <v>1.11</v>
+      </c>
+      <c r="BH291">
+        <v>5.46</v>
+      </c>
+      <c r="BI291">
+        <v>1.24</v>
+      </c>
+      <c r="BJ291">
+        <v>3.6</v>
+      </c>
+      <c r="BK291">
+        <v>1.49</v>
+      </c>
+      <c r="BL291">
+        <v>2.57</v>
+      </c>
+      <c r="BM291">
+        <v>1.78</v>
+      </c>
+      <c r="BN291">
+        <v>2.01</v>
+      </c>
+      <c r="BO291">
+        <v>2.22</v>
+      </c>
+      <c r="BP291">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>6775926</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45423.47916666666</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>83</v>
+      </c>
+      <c r="H292" t="s">
+        <v>75</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>266</v>
+      </c>
+      <c r="P292" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q292">
+        <v>3.48</v>
+      </c>
+      <c r="R292">
+        <v>2.06</v>
+      </c>
+      <c r="S292">
+        <v>3.02</v>
+      </c>
+      <c r="T292">
+        <v>1.42</v>
+      </c>
+      <c r="U292">
+        <v>2.74</v>
+      </c>
+      <c r="V292">
+        <v>2.98</v>
+      </c>
+      <c r="W292">
+        <v>1.36</v>
+      </c>
+      <c r="X292">
+        <v>7.7</v>
+      </c>
+      <c r="Y292">
+        <v>1.06</v>
+      </c>
+      <c r="Z292">
+        <v>2.8</v>
+      </c>
+      <c r="AA292">
+        <v>3.1</v>
+      </c>
+      <c r="AB292">
+        <v>2.28</v>
+      </c>
+      <c r="AC292">
+        <v>1.03</v>
+      </c>
+      <c r="AD292">
+        <v>8.4</v>
+      </c>
+      <c r="AE292">
+        <v>1.31</v>
+      </c>
+      <c r="AF292">
+        <v>3.04</v>
+      </c>
+      <c r="AG292">
+        <v>2</v>
+      </c>
+      <c r="AH292">
+        <v>1.73</v>
+      </c>
+      <c r="AI292">
+        <v>1.78</v>
+      </c>
+      <c r="AJ292">
+        <v>1.93</v>
+      </c>
+      <c r="AK292">
+        <v>1.53</v>
+      </c>
+      <c r="AL292">
+        <v>1.31</v>
+      </c>
+      <c r="AM292">
+        <v>1.41</v>
+      </c>
+      <c r="AN292">
+        <v>0.88</v>
+      </c>
+      <c r="AO292">
+        <v>0.88</v>
+      </c>
+      <c r="AP292">
+        <v>1</v>
+      </c>
+      <c r="AQ292">
+        <v>0.82</v>
+      </c>
+      <c r="AR292">
+        <v>1.55</v>
+      </c>
+      <c r="AS292">
+        <v>1.26</v>
+      </c>
+      <c r="AT292">
+        <v>2.81</v>
+      </c>
+      <c r="AU292">
+        <v>3</v>
+      </c>
+      <c r="AV292">
+        <v>2</v>
+      </c>
+      <c r="AW292">
+        <v>8</v>
+      </c>
+      <c r="AX292">
+        <v>5</v>
+      </c>
+      <c r="AY292">
+        <v>11</v>
+      </c>
+      <c r="AZ292">
+        <v>7</v>
+      </c>
+      <c r="BA292">
+        <v>6</v>
+      </c>
+      <c r="BB292">
+        <v>2</v>
+      </c>
+      <c r="BC292">
+        <v>8</v>
+      </c>
+      <c r="BD292">
+        <v>1.74</v>
+      </c>
+      <c r="BE292">
+        <v>9.5</v>
+      </c>
+      <c r="BF292">
+        <v>2.41</v>
+      </c>
+      <c r="BG292">
+        <v>1.15</v>
+      </c>
+      <c r="BH292">
+        <v>4.75</v>
+      </c>
+      <c r="BI292">
+        <v>1.22</v>
+      </c>
+      <c r="BJ292">
+        <v>3.3</v>
+      </c>
+      <c r="BK292">
+        <v>1.48</v>
+      </c>
+      <c r="BL292">
+        <v>2.5</v>
+      </c>
+      <c r="BM292">
+        <v>1.9</v>
+      </c>
+      <c r="BN292">
+        <v>1.9</v>
+      </c>
+      <c r="BO292">
+        <v>2.15</v>
+      </c>
+      <c r="BP292">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,6 +817,9 @@
     <t>['65', '89']</t>
   </si>
   <si>
+    <t>['34', '57']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1142,6 +1145,9 @@
   </si>
   <si>
     <t>['44', '63', '73']</t>
+  </si>
+  <si>
+    <t>['46', '53', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP292"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1968,7 +1974,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2586,7 +2592,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2998,7 +3004,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3616,7 +3622,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3697,7 +3703,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ11">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3822,7 +3828,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -4312,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ14">
         <v>1.19</v>
@@ -4440,7 +4446,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5139,7 +5145,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ18">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5342,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -7324,7 +7330,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7402,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ29">
         <v>0.63</v>
@@ -7736,7 +7742,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7942,7 +7948,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8023,7 +8029,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR32">
         <v>0.85</v>
@@ -8844,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8972,7 +8978,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9053,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
         <v>2.08</v>
@@ -9178,7 +9184,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9590,7 +9596,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -10286,7 +10292,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ43">
         <v>1.44</v>
@@ -10414,7 +10420,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10620,7 +10626,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10826,7 +10832,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11032,7 +11038,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11238,7 +11244,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11444,7 +11450,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11650,7 +11656,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11731,7 +11737,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -11856,7 +11862,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11934,7 +11940,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ51">
         <v>1.38</v>
@@ -12268,7 +12274,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12474,7 +12480,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12555,7 +12561,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
         <v>1.36</v>
@@ -12680,7 +12686,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -13298,7 +13304,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13376,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ58">
         <v>1.31</v>
@@ -13710,7 +13716,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -14122,7 +14128,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14328,7 +14334,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14946,7 +14952,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15230,7 +15236,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ67">
         <v>0.63</v>
@@ -15358,7 +15364,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15564,7 +15570,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15645,7 +15651,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ69">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR69">
         <v>1.57</v>
@@ -15770,7 +15776,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15851,7 +15857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -16182,7 +16188,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16388,7 +16394,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16594,7 +16600,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -17006,7 +17012,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17418,7 +17424,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17830,7 +17836,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -18036,7 +18042,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18114,7 +18120,7 @@
         <v>1.25</v>
       </c>
       <c r="AP81">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ81">
         <v>1.38</v>
@@ -18860,7 +18866,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -19147,7 +19153,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ86">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -19478,7 +19484,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19890,7 +19896,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19968,7 +19974,7 @@
         <v>2.4</v>
       </c>
       <c r="AP90">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ90">
         <v>2.06</v>
@@ -20508,7 +20514,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20792,7 +20798,7 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ94">
         <v>0.35</v>
@@ -21126,7 +21132,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21207,7 +21213,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
         <v>1.74</v>
@@ -21538,7 +21544,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -22362,7 +22368,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22568,7 +22574,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22774,7 +22780,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23392,7 +23398,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23804,7 +23810,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24216,7 +24222,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24297,7 +24303,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24628,7 +24634,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -24706,7 +24712,7 @@
         <v>1.8</v>
       </c>
       <c r="AP113">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ113">
         <v>2</v>
@@ -24912,7 +24918,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ114">
         <v>0.35</v>
@@ -25121,7 +25127,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR115">
         <v>1.33</v>
@@ -27306,7 +27312,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27512,7 +27518,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -28542,7 +28548,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28623,7 +28629,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR132">
         <v>1.25</v>
@@ -28748,7 +28754,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28826,7 +28832,7 @@
         <v>0.57</v>
       </c>
       <c r="AP133">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ133">
         <v>1.19</v>
@@ -28954,7 +28960,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29238,7 +29244,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ135">
         <v>1.06</v>
@@ -29572,7 +29578,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29653,7 +29659,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ137">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -30396,7 +30402,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30602,7 +30608,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -31014,7 +31020,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31426,7 +31432,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31632,7 +31638,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31710,7 +31716,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ147">
         <v>1.06</v>
@@ -31838,7 +31844,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32250,7 +32256,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32328,10 +32334,10 @@
         <v>2.57</v>
       </c>
       <c r="AP150">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ150">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR150">
         <v>1.5</v>
@@ -32456,7 +32462,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33155,7 +33161,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ154">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR154">
         <v>1.37</v>
@@ -33486,7 +33492,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33692,7 +33698,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33898,7 +33904,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -33979,7 +33985,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ158">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR158">
         <v>1.32</v>
@@ -34388,7 +34394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP160">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ160">
         <v>1.38</v>
@@ -34594,7 +34600,7 @@
         <v>0.22</v>
       </c>
       <c r="AP161">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ161">
         <v>0.82</v>
@@ -34722,7 +34728,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -35009,7 +35015,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ163">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR163">
         <v>1.64</v>
@@ -35134,7 +35140,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35752,7 +35758,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -36370,7 +36376,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36988,7 +36994,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37194,7 +37200,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37606,7 +37612,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37687,7 +37693,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ176">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR176">
         <v>1.29</v>
@@ -37812,7 +37818,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38302,7 +38308,7 @@
         <v>0.89</v>
       </c>
       <c r="AP179">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ179">
         <v>1.19</v>
@@ -38430,7 +38436,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38842,7 +38848,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39460,7 +39466,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39872,7 +39878,7 @@
         <v>155</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -40362,7 +40368,7 @@
         <v>0.9</v>
       </c>
       <c r="AP189">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ189">
         <v>1.19</v>
@@ -40490,7 +40496,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -41108,7 +41114,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41314,7 +41320,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41520,7 +41526,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41807,7 +41813,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ196">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR196">
         <v>1.3</v>
@@ -41932,7 +41938,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42013,7 +42019,7 @@
         <v>1</v>
       </c>
       <c r="AQ197">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR197">
         <v>1.58</v>
@@ -42138,7 +42144,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42422,7 +42428,7 @@
         <v>0.91</v>
       </c>
       <c r="AP199">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ199">
         <v>0.9399999999999999</v>
@@ -42756,7 +42762,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42962,7 +42968,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43580,7 +43586,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -44276,10 +44282,10 @@
         <v>1.4</v>
       </c>
       <c r="AP208">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ208">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR208">
         <v>1.44</v>
@@ -44404,7 +44410,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44610,7 +44616,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -44897,7 +44903,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ211">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR211">
         <v>1.45</v>
@@ -45022,7 +45028,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45309,7 +45315,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ213">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR213">
         <v>1.47</v>
@@ -45434,7 +45440,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -45512,7 +45518,7 @@
         <v>1.45</v>
       </c>
       <c r="AP214">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ214">
         <v>1.44</v>
@@ -46052,7 +46058,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -47494,7 +47500,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47572,7 +47578,7 @@
         <v>1.92</v>
       </c>
       <c r="AP224">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ224">
         <v>2.06</v>
@@ -47700,7 +47706,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -48399,7 +48405,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ228">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR228">
         <v>1.42</v>
@@ -48524,7 +48530,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48730,7 +48736,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -49348,7 +49354,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49429,7 +49435,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ233">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR233">
         <v>1.58</v>
@@ -49554,7 +49560,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -49632,7 +49638,7 @@
         <v>1.5</v>
       </c>
       <c r="AP234">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ234">
         <v>1.44</v>
@@ -50456,7 +50462,7 @@
         <v>0.54</v>
       </c>
       <c r="AP238">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ238">
         <v>0.63</v>
@@ -50665,7 +50671,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ239">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR239">
         <v>1.31</v>
@@ -50996,7 +51002,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51408,7 +51414,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51614,7 +51620,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -52104,7 +52110,7 @@
         <v>0.85</v>
       </c>
       <c r="AP246">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ246">
         <v>0.9399999999999999</v>
@@ -52313,7 +52319,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ247">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR247">
         <v>1.78</v>
@@ -52438,7 +52444,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52850,7 +52856,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53262,7 +53268,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53468,7 +53474,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -54164,7 +54170,7 @@
         <v>0.57</v>
       </c>
       <c r="AP256">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ256">
         <v>0.82</v>
@@ -54292,7 +54298,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54373,7 +54379,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ257">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR257">
         <v>1.47</v>
@@ -54498,7 +54504,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -54579,7 +54585,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ258">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR258">
         <v>1.71</v>
@@ -55194,7 +55200,7 @@
         <v>1.29</v>
       </c>
       <c r="AP261">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ261">
         <v>1.38</v>
@@ -55528,7 +55534,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55734,7 +55740,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55940,7 +55946,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56352,7 +56358,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56558,7 +56564,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56764,7 +56770,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56970,7 +56976,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57176,7 +57182,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57382,7 +57388,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57588,7 +57594,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57794,7 +57800,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -58000,7 +58006,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58078,7 +58084,7 @@
         <v>0.47</v>
       </c>
       <c r="AP275">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ275">
         <v>0.63</v>
@@ -58206,7 +58212,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58490,7 +58496,7 @@
         <v>1.2</v>
       </c>
       <c r="AP277">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ277">
         <v>1.29</v>
@@ -58618,7 +58624,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58824,7 +58830,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -58905,7 +58911,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ279">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR279">
         <v>1.42</v>
@@ -59030,7 +59036,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -59111,7 +59117,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ280">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR280">
         <v>1.73</v>
@@ -60060,7 +60066,7 @@
         <v>88</v>
       </c>
       <c r="P285" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60678,7 +60684,7 @@
         <v>262</v>
       </c>
       <c r="P288" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -60884,7 +60890,7 @@
         <v>263</v>
       </c>
       <c r="P289" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q289">
         <v>2.03</v>
@@ -61090,7 +61096,7 @@
         <v>264</v>
       </c>
       <c r="P290" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q290">
         <v>3</v>
@@ -61659,6 +61665,418 @@
       </c>
       <c r="BP292">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>6775931</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45424.29166666666</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>87</v>
+      </c>
+      <c r="H293" t="s">
+        <v>72</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+      <c r="O293" t="s">
+        <v>88</v>
+      </c>
+      <c r="P293" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q293">
+        <v>3.5</v>
+      </c>
+      <c r="R293">
+        <v>2.05</v>
+      </c>
+      <c r="S293">
+        <v>2.95</v>
+      </c>
+      <c r="T293">
+        <v>1.44</v>
+      </c>
+      <c r="U293">
+        <v>2.6</v>
+      </c>
+      <c r="V293">
+        <v>2.95</v>
+      </c>
+      <c r="W293">
+        <v>1.35</v>
+      </c>
+      <c r="X293">
+        <v>7.4</v>
+      </c>
+      <c r="Y293">
+        <v>1.06</v>
+      </c>
+      <c r="Z293">
+        <v>3</v>
+      </c>
+      <c r="AA293">
+        <v>3.2</v>
+      </c>
+      <c r="AB293">
+        <v>2.25</v>
+      </c>
+      <c r="AC293">
+        <v>1.06</v>
+      </c>
+      <c r="AD293">
+        <v>7.2</v>
+      </c>
+      <c r="AE293">
+        <v>1.33</v>
+      </c>
+      <c r="AF293">
+        <v>3.1</v>
+      </c>
+      <c r="AG293">
+        <v>2</v>
+      </c>
+      <c r="AH293">
+        <v>1.65</v>
+      </c>
+      <c r="AI293">
+        <v>1.8</v>
+      </c>
+      <c r="AJ293">
+        <v>1.95</v>
+      </c>
+      <c r="AK293">
+        <v>1.57</v>
+      </c>
+      <c r="AL293">
+        <v>1.25</v>
+      </c>
+      <c r="AM293">
+        <v>1.36</v>
+      </c>
+      <c r="AN293">
+        <v>0.75</v>
+      </c>
+      <c r="AO293">
+        <v>2.13</v>
+      </c>
+      <c r="AP293">
+        <v>0.76</v>
+      </c>
+      <c r="AQ293">
+        <v>2.06</v>
+      </c>
+      <c r="AR293">
+        <v>1.48</v>
+      </c>
+      <c r="AS293">
+        <v>1.47</v>
+      </c>
+      <c r="AT293">
+        <v>2.95</v>
+      </c>
+      <c r="AU293">
+        <v>2</v>
+      </c>
+      <c r="AV293">
+        <v>5</v>
+      </c>
+      <c r="AW293">
+        <v>6</v>
+      </c>
+      <c r="AX293">
+        <v>1</v>
+      </c>
+      <c r="AY293">
+        <v>8</v>
+      </c>
+      <c r="AZ293">
+        <v>6</v>
+      </c>
+      <c r="BA293">
+        <v>3</v>
+      </c>
+      <c r="BB293">
+        <v>7</v>
+      </c>
+      <c r="BC293">
+        <v>10</v>
+      </c>
+      <c r="BD293">
+        <v>0</v>
+      </c>
+      <c r="BE293">
+        <v>0</v>
+      </c>
+      <c r="BF293">
+        <v>0</v>
+      </c>
+      <c r="BG293">
+        <v>0</v>
+      </c>
+      <c r="BH293">
+        <v>0</v>
+      </c>
+      <c r="BI293">
+        <v>0</v>
+      </c>
+      <c r="BJ293">
+        <v>0</v>
+      </c>
+      <c r="BK293">
+        <v>1.57</v>
+      </c>
+      <c r="BL293">
+        <v>2.35</v>
+      </c>
+      <c r="BM293">
+        <v>1.9</v>
+      </c>
+      <c r="BN293">
+        <v>1.9</v>
+      </c>
+      <c r="BO293">
+        <v>2.42</v>
+      </c>
+      <c r="BP293">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>6775923</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45424.29166666666</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>82</v>
+      </c>
+      <c r="H294" t="s">
+        <v>71</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>3</v>
+      </c>
+      <c r="N294">
+        <v>5</v>
+      </c>
+      <c r="O294" t="s">
+        <v>267</v>
+      </c>
+      <c r="P294" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q294">
+        <v>3.94</v>
+      </c>
+      <c r="R294">
+        <v>2.12</v>
+      </c>
+      <c r="S294">
+        <v>2.64</v>
+      </c>
+      <c r="T294">
+        <v>1.39</v>
+      </c>
+      <c r="U294">
+        <v>2.86</v>
+      </c>
+      <c r="V294">
+        <v>2.82</v>
+      </c>
+      <c r="W294">
+        <v>1.4</v>
+      </c>
+      <c r="X294">
+        <v>7.1</v>
+      </c>
+      <c r="Y294">
+        <v>1.08</v>
+      </c>
+      <c r="Z294">
+        <v>4</v>
+      </c>
+      <c r="AA294">
+        <v>3.4</v>
+      </c>
+      <c r="AB294">
+        <v>1.85</v>
+      </c>
+      <c r="AC294">
+        <v>1.02</v>
+      </c>
+      <c r="AD294">
+        <v>9.1</v>
+      </c>
+      <c r="AE294">
+        <v>1.27</v>
+      </c>
+      <c r="AF294">
+        <v>3.28</v>
+      </c>
+      <c r="AG294">
+        <v>1.83</v>
+      </c>
+      <c r="AH294">
+        <v>1.8</v>
+      </c>
+      <c r="AI294">
+        <v>1.74</v>
+      </c>
+      <c r="AJ294">
+        <v>1.98</v>
+      </c>
+      <c r="AK294">
+        <v>1.71</v>
+      </c>
+      <c r="AL294">
+        <v>1.28</v>
+      </c>
+      <c r="AM294">
+        <v>1.3</v>
+      </c>
+      <c r="AN294">
+        <v>1.44</v>
+      </c>
+      <c r="AO294">
+        <v>1.63</v>
+      </c>
+      <c r="AP294">
+        <v>1.35</v>
+      </c>
+      <c r="AQ294">
+        <v>1.71</v>
+      </c>
+      <c r="AR294">
+        <v>1.43</v>
+      </c>
+      <c r="AS294">
+        <v>1.47</v>
+      </c>
+      <c r="AT294">
+        <v>2.9</v>
+      </c>
+      <c r="AU294">
+        <v>0</v>
+      </c>
+      <c r="AV294">
+        <v>6</v>
+      </c>
+      <c r="AW294">
+        <v>3</v>
+      </c>
+      <c r="AX294">
+        <v>2</v>
+      </c>
+      <c r="AY294">
+        <v>3</v>
+      </c>
+      <c r="AZ294">
+        <v>8</v>
+      </c>
+      <c r="BA294">
+        <v>4</v>
+      </c>
+      <c r="BB294">
+        <v>5</v>
+      </c>
+      <c r="BC294">
+        <v>9</v>
+      </c>
+      <c r="BD294">
+        <v>1.97</v>
+      </c>
+      <c r="BE294">
+        <v>9.6</v>
+      </c>
+      <c r="BF294">
+        <v>2.07</v>
+      </c>
+      <c r="BG294">
+        <v>0</v>
+      </c>
+      <c r="BH294">
+        <v>0</v>
+      </c>
+      <c r="BI294">
+        <v>1.19</v>
+      </c>
+      <c r="BJ294">
+        <v>4.14</v>
+      </c>
+      <c r="BK294">
+        <v>1.35</v>
+      </c>
+      <c r="BL294">
+        <v>2.84</v>
+      </c>
+      <c r="BM294">
+        <v>1.65</v>
+      </c>
+      <c r="BN294">
+        <v>2.21</v>
+      </c>
+      <c r="BO294">
+        <v>2</v>
+      </c>
+      <c r="BP294">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,12 @@
     <t>['34', '57']</t>
   </si>
   <si>
+    <t>['22', '81']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1030,9 +1036,6 @@
     <t>['6', '66']</t>
   </si>
   <si>
-    <t>['77']</t>
-  </si>
-  <si>
     <t>['20', '73', '75']</t>
   </si>
   <si>
@@ -1148,6 +1151,15 @@
   </si>
   <si>
     <t>['46', '53', '90+5']</t>
+  </si>
+  <si>
+    <t>['7', '13']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['14', '47', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP294"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1974,7 +1986,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2592,7 +2604,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2670,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6">
         <v>1.44</v>
@@ -3004,7 +3016,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3622,7 +3634,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3700,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ11">
         <v>2.06</v>
@@ -3828,7 +3840,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -3906,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ12">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4446,7 +4458,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4527,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5351,7 +5363,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6378,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>0.9399999999999999</v>
@@ -7330,7 +7342,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7614,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
@@ -7742,7 +7754,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7823,7 +7835,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR31">
         <v>2.15</v>
@@ -7948,7 +7960,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8438,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ34">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8647,7 +8659,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ35">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.04</v>
@@ -8978,7 +8990,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9184,7 +9196,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9596,7 +9608,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -9674,7 +9686,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40">
         <v>2.06</v>
@@ -10420,7 +10432,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10626,7 +10638,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10832,7 +10844,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11038,7 +11050,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11244,7 +11256,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11325,7 +11337,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR48">
         <v>1.73</v>
@@ -11450,7 +11462,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11528,7 +11540,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ49">
         <v>1.44</v>
@@ -11656,7 +11668,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11862,7 +11874,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12149,7 +12161,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12274,7 +12286,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12480,7 +12492,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12686,7 +12698,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -13179,7 +13191,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ57">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -13304,7 +13316,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13716,7 +13728,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -13794,7 +13806,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
@@ -14000,7 +14012,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ61">
         <v>0.9399999999999999</v>
@@ -14128,7 +14140,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14334,7 +14346,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14952,7 +14964,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15033,7 +15045,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ66">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
         <v>1.72</v>
@@ -15364,7 +15376,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15442,7 +15454,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ68">
         <v>1.44</v>
@@ -15570,7 +15582,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15776,7 +15788,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16188,7 +16200,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16394,7 +16406,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16600,7 +16612,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16678,7 +16690,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ74">
         <v>1.31</v>
@@ -16884,7 +16896,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
         <v>0.35</v>
@@ -17012,7 +17024,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17424,7 +17436,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17505,7 +17517,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR78">
         <v>1.43</v>
@@ -17711,7 +17723,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -17836,7 +17848,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -18042,7 +18054,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18866,7 +18878,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -19359,7 +19371,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ87">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -19484,7 +19496,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19896,7 +19908,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20386,7 +20398,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ92">
         <v>0.63</v>
@@ -20514,7 +20526,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20595,7 +20607,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR93">
         <v>1.56</v>
@@ -21132,7 +21144,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21544,7 +21556,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21622,7 +21634,7 @@
         <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ98">
         <v>1.38</v>
@@ -21828,7 +21840,7 @@
         <v>0.6</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99">
         <v>1.19</v>
@@ -22037,7 +22049,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ100">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.26</v>
@@ -22368,7 +22380,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22574,7 +22586,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22780,7 +22792,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22861,7 +22873,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ104">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -23398,7 +23410,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23810,7 +23822,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24222,7 +24234,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24300,7 +24312,7 @@
         <v>2.4</v>
       </c>
       <c r="AP111">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111">
         <v>2.06</v>
@@ -24634,7 +24646,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -24715,7 +24727,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ113">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR113">
         <v>1.51</v>
@@ -25330,7 +25342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ116">
         <v>1.19</v>
@@ -25539,7 +25551,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ117">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.38</v>
@@ -25742,7 +25754,7 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ118">
         <v>0.63</v>
@@ -26569,7 +26581,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ122">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR122">
         <v>1.67</v>
@@ -27312,7 +27324,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27518,7 +27530,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -28011,7 +28023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR129">
         <v>1.22</v>
@@ -28217,7 +28229,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ130">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR130">
         <v>1.36</v>
@@ -28420,7 +28432,7 @@
         <v>0.14</v>
       </c>
       <c r="AP131">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ131">
         <v>0.82</v>
@@ -28548,7 +28560,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28626,7 +28638,7 @@
         <v>1.67</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
         <v>1.71</v>
@@ -28754,7 +28766,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28960,7 +28972,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29247,7 +29259,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ135">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29578,7 +29590,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29656,7 +29668,7 @@
         <v>2.5</v>
       </c>
       <c r="AP137">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ137">
         <v>2.06</v>
@@ -30402,7 +30414,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30608,7 +30620,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -31020,7 +31032,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31432,7 +31444,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31638,7 +31650,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31719,7 +31731,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ147">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.45</v>
@@ -31844,7 +31856,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -31925,7 +31937,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ148">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR148">
         <v>1.29</v>
@@ -32256,7 +32268,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32462,7 +32474,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32540,7 +32552,7 @@
         <v>0.86</v>
       </c>
       <c r="AP151">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ151">
         <v>1.29</v>
@@ -32746,7 +32758,7 @@
         <v>0.88</v>
       </c>
       <c r="AP152">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ152">
         <v>1.19</v>
@@ -32955,7 +32967,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR153">
         <v>1.28</v>
@@ -33158,7 +33170,7 @@
         <v>1.86</v>
       </c>
       <c r="AP154">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ154">
         <v>1.71</v>
@@ -33492,7 +33504,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33698,7 +33710,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33776,7 +33788,7 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ157">
         <v>1.29</v>
@@ -33904,7 +33916,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34191,7 +34203,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ159">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.26</v>
@@ -34728,7 +34740,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -34809,7 +34821,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR162">
         <v>1.24</v>
@@ -35012,7 +35024,7 @@
         <v>1.75</v>
       </c>
       <c r="AP163">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ163">
         <v>1.71</v>
@@ -35140,7 +35152,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35758,7 +35770,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -36042,7 +36054,7 @@
         <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168">
         <v>0.63</v>
@@ -36376,7 +36388,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36994,7 +37006,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37075,7 +37087,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR173">
         <v>1.59</v>
@@ -37200,7 +37212,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37278,7 +37290,7 @@
         <v>0.44</v>
       </c>
       <c r="AP174">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ174">
         <v>0.63</v>
@@ -37612,7 +37624,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37818,7 +37830,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37899,7 +37911,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ177">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR177">
         <v>1.45</v>
@@ -38102,7 +38114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP178">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ178">
         <v>1.29</v>
@@ -38311,7 +38323,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ179">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR179">
         <v>1.54</v>
@@ -38436,7 +38448,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38848,7 +38860,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39466,7 +39478,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39878,7 +39890,7 @@
         <v>155</v>
       </c>
       <c r="P187" t="s">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39956,7 +39968,7 @@
         <v>1.4</v>
       </c>
       <c r="AP187">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ187">
         <v>1.44</v>
@@ -40371,7 +40383,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ189">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40496,7 +40508,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -40574,7 +40586,7 @@
         <v>1.3</v>
       </c>
       <c r="AP190">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ190">
         <v>1.44</v>
@@ -40986,7 +40998,7 @@
         <v>1.2</v>
       </c>
       <c r="AP192">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ192">
         <v>1.38</v>
@@ -41114,7 +41126,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41320,7 +41332,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41401,7 +41413,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ194">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR194">
         <v>1.38</v>
@@ -41526,7 +41538,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41607,7 +41619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ195">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR195">
         <v>1.48</v>
@@ -41938,7 +41950,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42144,7 +42156,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42637,7 +42649,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ200">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR200">
         <v>1.53</v>
@@ -42762,7 +42774,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42968,7 +42980,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43046,7 +43058,7 @@
         <v>1.09</v>
       </c>
       <c r="AP202">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ202">
         <v>1.31</v>
@@ -43458,7 +43470,7 @@
         <v>2</v>
       </c>
       <c r="AP204">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
         <v>2.06</v>
@@ -43586,7 +43598,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -44410,7 +44422,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44616,7 +44628,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -45028,7 +45040,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45440,7 +45452,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -45727,7 +45739,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ215">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR215">
         <v>1.4</v>
@@ -45933,7 +45945,7 @@
         <v>1</v>
       </c>
       <c r="AQ216">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR216">
         <v>1.56</v>
@@ -46058,7 +46070,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -46136,7 +46148,7 @@
         <v>0.45</v>
       </c>
       <c r="AP217">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ217">
         <v>0.63</v>
@@ -46345,7 +46357,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ218">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR218">
         <v>1.32</v>
@@ -46548,7 +46560,7 @@
         <v>0.42</v>
       </c>
       <c r="AP219">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ219">
         <v>0.82</v>
@@ -46963,7 +46975,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ221">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR221">
         <v>1.49</v>
@@ -47166,7 +47178,7 @@
         <v>0.58</v>
       </c>
       <c r="AP222">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ222">
         <v>0.63</v>
@@ -47500,7 +47512,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47706,7 +47718,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -48530,7 +48542,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48736,7 +48748,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -48817,7 +48829,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ230">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR230">
         <v>1.39</v>
@@ -49020,7 +49032,7 @@
         <v>0.92</v>
       </c>
       <c r="AP231">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -49354,7 +49366,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49560,7 +49572,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -50259,7 +50271,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ237">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR237">
         <v>1.74</v>
@@ -50874,7 +50886,7 @@
         <v>1.38</v>
       </c>
       <c r="AP240">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ240">
         <v>1.31</v>
@@ -51002,7 +51014,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51083,7 +51095,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ241">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR241">
         <v>1.62</v>
@@ -51286,7 +51298,7 @@
         <v>0.62</v>
       </c>
       <c r="AP242">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ242">
         <v>0.82</v>
@@ -51414,7 +51426,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51620,7 +51632,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51698,7 +51710,7 @@
         <v>1.38</v>
       </c>
       <c r="AP244">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ244">
         <v>1.38</v>
@@ -52444,7 +52456,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52856,7 +52868,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -52937,7 +52949,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ250">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR250">
         <v>1.59</v>
@@ -53268,7 +53280,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53474,7 +53486,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -54298,7 +54310,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54504,7 +54516,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -54788,7 +54800,7 @@
         <v>0.36</v>
       </c>
       <c r="AP259">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ259">
         <v>0.35</v>
@@ -54994,10 +55006,10 @@
         <v>0.93</v>
       </c>
       <c r="AP260">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ260">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR260">
         <v>1.42</v>
@@ -55406,10 +55418,10 @@
         <v>2.14</v>
       </c>
       <c r="AP262">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ262">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR262">
         <v>1.54</v>
@@ -55534,7 +55546,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55740,7 +55752,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55821,7 +55833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ264">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR264">
         <v>1.5</v>
@@ -55946,7 +55958,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56358,7 +56370,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56564,7 +56576,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56770,7 +56782,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56976,7 +56988,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57182,7 +57194,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57388,7 +57400,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57594,7 +57606,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57672,10 +57684,10 @@
         <v>1.07</v>
       </c>
       <c r="AP273">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ273">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR273">
         <v>1.41</v>
@@ -57800,7 +57812,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -57878,7 +57890,7 @@
         <v>0.4</v>
       </c>
       <c r="AP274">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ274">
         <v>0.35</v>
@@ -58006,7 +58018,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58212,7 +58224,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58624,7 +58636,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58702,10 +58714,10 @@
         <v>2.07</v>
       </c>
       <c r="AP278">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ278">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR278">
         <v>1.39</v>
@@ -58830,7 +58842,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -59036,7 +59048,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -60066,7 +60078,7 @@
         <v>88</v>
       </c>
       <c r="P285" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60684,7 +60696,7 @@
         <v>262</v>
       </c>
       <c r="P288" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -60765,7 +60777,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ288">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR288">
         <v>1.45</v>
@@ -60890,7 +60902,7 @@
         <v>263</v>
       </c>
       <c r="P289" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q289">
         <v>2.03</v>
@@ -61096,7 +61108,7 @@
         <v>264</v>
       </c>
       <c r="P290" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q290">
         <v>3</v>
@@ -61807,22 +61819,22 @@
         <v>2.95</v>
       </c>
       <c r="AU293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV293">
         <v>5</v>
       </c>
       <c r="AW293">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX293">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY293">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ293">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA293">
         <v>3</v>
@@ -61843,16 +61855,16 @@
         <v>0</v>
       </c>
       <c r="BG293">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH293">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="BI293">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BJ293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK293">
         <v>1.57</v>
@@ -61920,7 +61932,7 @@
         <v>267</v>
       </c>
       <c r="P294" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q294">
         <v>3.94</v>
@@ -62013,10 +62025,10 @@
         <v>2.9</v>
       </c>
       <c r="AU294">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV294">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW294">
         <v>3</v>
@@ -62025,10 +62037,10 @@
         <v>2</v>
       </c>
       <c r="AY294">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ294">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA294">
         <v>4</v>
@@ -62049,10 +62061,10 @@
         <v>2.07</v>
       </c>
       <c r="BG294">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="BH294">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BI294">
         <v>1.19</v>
@@ -62077,6 +62089,624 @@
       </c>
       <c r="BP294">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>6775929</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>80</v>
+      </c>
+      <c r="H295" t="s">
+        <v>78</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>2</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>88</v>
+      </c>
+      <c r="P295" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q295">
+        <v>6.5</v>
+      </c>
+      <c r="R295">
+        <v>2.05</v>
+      </c>
+      <c r="S295">
+        <v>2.05</v>
+      </c>
+      <c r="T295">
+        <v>1.42</v>
+      </c>
+      <c r="U295">
+        <v>2.6</v>
+      </c>
+      <c r="V295">
+        <v>2.95</v>
+      </c>
+      <c r="W295">
+        <v>1.35</v>
+      </c>
+      <c r="X295">
+        <v>7.2</v>
+      </c>
+      <c r="Y295">
+        <v>1.06</v>
+      </c>
+      <c r="Z295">
+        <v>6</v>
+      </c>
+      <c r="AA295">
+        <v>3.8</v>
+      </c>
+      <c r="AB295">
+        <v>1.5</v>
+      </c>
+      <c r="AC295">
+        <v>1.06</v>
+      </c>
+      <c r="AD295">
+        <v>7.2</v>
+      </c>
+      <c r="AE295">
+        <v>1.36</v>
+      </c>
+      <c r="AF295">
+        <v>3</v>
+      </c>
+      <c r="AG295">
+        <v>2.05</v>
+      </c>
+      <c r="AH295">
+        <v>1.61</v>
+      </c>
+      <c r="AI295">
+        <v>2.15</v>
+      </c>
+      <c r="AJ295">
+        <v>1.65</v>
+      </c>
+      <c r="AK295">
+        <v>2.45</v>
+      </c>
+      <c r="AL295">
+        <v>1.2</v>
+      </c>
+      <c r="AM295">
+        <v>1.07</v>
+      </c>
+      <c r="AN295">
+        <v>1.31</v>
+      </c>
+      <c r="AO295">
+        <v>2</v>
+      </c>
+      <c r="AP295">
+        <v>1.24</v>
+      </c>
+      <c r="AQ295">
+        <v>2.06</v>
+      </c>
+      <c r="AR295">
+        <v>1.44</v>
+      </c>
+      <c r="AS295">
+        <v>1.45</v>
+      </c>
+      <c r="AT295">
+        <v>2.89</v>
+      </c>
+      <c r="AU295">
+        <v>3</v>
+      </c>
+      <c r="AV295">
+        <v>7</v>
+      </c>
+      <c r="AW295">
+        <v>5</v>
+      </c>
+      <c r="AX295">
+        <v>6</v>
+      </c>
+      <c r="AY295">
+        <v>8</v>
+      </c>
+      <c r="AZ295">
+        <v>13</v>
+      </c>
+      <c r="BA295">
+        <v>3</v>
+      </c>
+      <c r="BB295">
+        <v>5</v>
+      </c>
+      <c r="BC295">
+        <v>8</v>
+      </c>
+      <c r="BD295">
+        <v>2.58</v>
+      </c>
+      <c r="BE295">
+        <v>8.9</v>
+      </c>
+      <c r="BF295">
+        <v>1.55</v>
+      </c>
+      <c r="BG295">
+        <v>1.24</v>
+      </c>
+      <c r="BH295">
+        <v>3.48</v>
+      </c>
+      <c r="BI295">
+        <v>1.51</v>
+      </c>
+      <c r="BJ295">
+        <v>2.48</v>
+      </c>
+      <c r="BK295">
+        <v>1.85</v>
+      </c>
+      <c r="BL295">
+        <v>1.95</v>
+      </c>
+      <c r="BM295">
+        <v>2.3</v>
+      </c>
+      <c r="BN295">
+        <v>1.58</v>
+      </c>
+      <c r="BO295">
+        <v>3.14</v>
+      </c>
+      <c r="BP295">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>6775924</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45424.47916666666</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>79</v>
+      </c>
+      <c r="H296" t="s">
+        <v>77</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>3</v>
+      </c>
+      <c r="O296" t="s">
+        <v>268</v>
+      </c>
+      <c r="P296" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q296">
+        <v>1.93</v>
+      </c>
+      <c r="R296">
+        <v>2.38</v>
+      </c>
+      <c r="S296">
+        <v>6</v>
+      </c>
+      <c r="T296">
+        <v>1.32</v>
+      </c>
+      <c r="U296">
+        <v>3.22</v>
+      </c>
+      <c r="V296">
+        <v>2.51</v>
+      </c>
+      <c r="W296">
+        <v>1.49</v>
+      </c>
+      <c r="X296">
+        <v>6</v>
+      </c>
+      <c r="Y296">
+        <v>1.11</v>
+      </c>
+      <c r="Z296">
+        <v>1.4</v>
+      </c>
+      <c r="AA296">
+        <v>4.6</v>
+      </c>
+      <c r="AB296">
+        <v>6</v>
+      </c>
+      <c r="AC296">
+        <v>1.02</v>
+      </c>
+      <c r="AD296">
+        <v>10.5</v>
+      </c>
+      <c r="AE296">
+        <v>1.2</v>
+      </c>
+      <c r="AF296">
+        <v>3.88</v>
+      </c>
+      <c r="AG296">
+        <v>1.67</v>
+      </c>
+      <c r="AH296">
+        <v>2</v>
+      </c>
+      <c r="AI296">
+        <v>1.85</v>
+      </c>
+      <c r="AJ296">
+        <v>1.85</v>
+      </c>
+      <c r="AK296">
+        <v>1.09</v>
+      </c>
+      <c r="AL296">
+        <v>1.18</v>
+      </c>
+      <c r="AM296">
+        <v>2.66</v>
+      </c>
+      <c r="AN296">
+        <v>1.69</v>
+      </c>
+      <c r="AO296">
+        <v>1.06</v>
+      </c>
+      <c r="AP296">
+        <v>1.76</v>
+      </c>
+      <c r="AQ296">
+        <v>1</v>
+      </c>
+      <c r="AR296">
+        <v>1.53</v>
+      </c>
+      <c r="AS296">
+        <v>1.32</v>
+      </c>
+      <c r="AT296">
+        <v>2.85</v>
+      </c>
+      <c r="AU296">
+        <v>7</v>
+      </c>
+      <c r="AV296">
+        <v>6</v>
+      </c>
+      <c r="AW296">
+        <v>11</v>
+      </c>
+      <c r="AX296">
+        <v>5</v>
+      </c>
+      <c r="AY296">
+        <v>18</v>
+      </c>
+      <c r="AZ296">
+        <v>11</v>
+      </c>
+      <c r="BA296">
+        <v>14</v>
+      </c>
+      <c r="BB296">
+        <v>9</v>
+      </c>
+      <c r="BC296">
+        <v>23</v>
+      </c>
+      <c r="BD296">
+        <v>1.3</v>
+      </c>
+      <c r="BE296">
+        <v>11</v>
+      </c>
+      <c r="BF296">
+        <v>4.28</v>
+      </c>
+      <c r="BG296">
+        <v>1.13</v>
+      </c>
+      <c r="BH296">
+        <v>5.12</v>
+      </c>
+      <c r="BI296">
+        <v>1.27</v>
+      </c>
+      <c r="BJ296">
+        <v>3.38</v>
+      </c>
+      <c r="BK296">
+        <v>1.48</v>
+      </c>
+      <c r="BL296">
+        <v>2.59</v>
+      </c>
+      <c r="BM296">
+        <v>2</v>
+      </c>
+      <c r="BN296">
+        <v>1.8</v>
+      </c>
+      <c r="BO296">
+        <v>2.25</v>
+      </c>
+      <c r="BP296">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>6775930</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45424.47916666666</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>74</v>
+      </c>
+      <c r="H297" t="s">
+        <v>70</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>3</v>
+      </c>
+      <c r="N297">
+        <v>4</v>
+      </c>
+      <c r="O297" t="s">
+        <v>269</v>
+      </c>
+      <c r="P297" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q297">
+        <v>2.97</v>
+      </c>
+      <c r="R297">
+        <v>2.32</v>
+      </c>
+      <c r="S297">
+        <v>3.48</v>
+      </c>
+      <c r="T297">
+        <v>1.35</v>
+      </c>
+      <c r="U297">
+        <v>3.04</v>
+      </c>
+      <c r="V297">
+        <v>2.6</v>
+      </c>
+      <c r="W297">
+        <v>1.46</v>
+      </c>
+      <c r="X297">
+        <v>6.35</v>
+      </c>
+      <c r="Y297">
+        <v>1.1</v>
+      </c>
+      <c r="Z297">
+        <v>2.3</v>
+      </c>
+      <c r="AA297">
+        <v>3.3</v>
+      </c>
+      <c r="AB297">
+        <v>2.8</v>
+      </c>
+      <c r="AC297">
+        <v>1.01</v>
+      </c>
+      <c r="AD297">
+        <v>10</v>
+      </c>
+      <c r="AE297">
+        <v>1.22</v>
+      </c>
+      <c r="AF297">
+        <v>3.65</v>
+      </c>
+      <c r="AG297">
+        <v>1.75</v>
+      </c>
+      <c r="AH297">
+        <v>1.91</v>
+      </c>
+      <c r="AI297">
+        <v>1.62</v>
+      </c>
+      <c r="AJ297">
+        <v>2.23</v>
+      </c>
+      <c r="AK297">
+        <v>1.4</v>
+      </c>
+      <c r="AL297">
+        <v>1.28</v>
+      </c>
+      <c r="AM297">
+        <v>1.57</v>
+      </c>
+      <c r="AN297">
+        <v>1.38</v>
+      </c>
+      <c r="AO297">
+        <v>1.19</v>
+      </c>
+      <c r="AP297">
+        <v>1.29</v>
+      </c>
+      <c r="AQ297">
+        <v>1.29</v>
+      </c>
+      <c r="AR297">
+        <v>1.36</v>
+      </c>
+      <c r="AS297">
+        <v>1.35</v>
+      </c>
+      <c r="AT297">
+        <v>2.71</v>
+      </c>
+      <c r="AU297">
+        <v>5</v>
+      </c>
+      <c r="AV297">
+        <v>5</v>
+      </c>
+      <c r="AW297">
+        <v>9</v>
+      </c>
+      <c r="AX297">
+        <v>8</v>
+      </c>
+      <c r="AY297">
+        <v>14</v>
+      </c>
+      <c r="AZ297">
+        <v>13</v>
+      </c>
+      <c r="BA297">
+        <v>14</v>
+      </c>
+      <c r="BB297">
+        <v>3</v>
+      </c>
+      <c r="BC297">
+        <v>17</v>
+      </c>
+      <c r="BD297">
+        <v>0</v>
+      </c>
+      <c r="BE297">
+        <v>0</v>
+      </c>
+      <c r="BF297">
+        <v>0</v>
+      </c>
+      <c r="BG297">
+        <v>0</v>
+      </c>
+      <c r="BH297">
+        <v>0</v>
+      </c>
+      <c r="BI297">
+        <v>1.33</v>
+      </c>
+      <c r="BJ297">
+        <v>3</v>
+      </c>
+      <c r="BK297">
+        <v>1.53</v>
+      </c>
+      <c r="BL297">
+        <v>2.45</v>
+      </c>
+      <c r="BM297">
+        <v>2</v>
+      </c>
+      <c r="BN297">
+        <v>1.8</v>
+      </c>
+      <c r="BO297">
+        <v>2.34</v>
+      </c>
+      <c r="BP297">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,9 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['7', '19', '55']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1521,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1986,7 +1989,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2604,7 +2607,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -3016,7 +3019,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3634,7 +3637,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3840,7 +3843,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -4124,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ13">
         <v>1.29</v>
@@ -4333,7 +4336,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ14">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4458,7 +4461,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -7342,7 +7345,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7754,7 +7757,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7960,7 +7963,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8038,7 +8041,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ32">
         <v>2.06</v>
@@ -8247,7 +8250,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR33">
         <v>1.52</v>
@@ -8990,7 +8993,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9196,7 +9199,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9608,7 +9611,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -10432,7 +10435,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10513,7 +10516,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ44">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10638,7 +10641,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10844,7 +10847,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11050,7 +11053,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11256,7 +11259,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11462,7 +11465,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11668,7 +11671,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11874,7 +11877,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12286,7 +12289,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12364,7 +12367,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ53">
         <v>1.44</v>
@@ -12492,7 +12495,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12698,7 +12701,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -12985,7 +12988,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ56">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR56">
         <v>1.36</v>
@@ -13316,7 +13319,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13728,7 +13731,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -14140,7 +14143,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14346,7 +14349,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14964,7 +14967,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15376,7 +15379,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15582,7 +15585,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15788,7 +15791,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16200,7 +16203,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16406,7 +16409,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16612,7 +16615,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -17024,7 +17027,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17436,7 +17439,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17848,7 +17851,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -17926,7 +17929,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ80">
         <v>2.06</v>
@@ -18054,7 +18057,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18341,7 +18344,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ82">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR82">
         <v>1.66</v>
@@ -18878,7 +18881,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -19496,7 +19499,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19908,7 +19911,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20526,7 +20529,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -21016,7 +21019,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ95">
         <v>1.31</v>
@@ -21144,7 +21147,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21556,7 +21559,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21843,7 +21846,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ99">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR99">
         <v>1.23</v>
@@ -22380,7 +22383,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22586,7 +22589,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22792,7 +22795,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23410,7 +23413,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23822,7 +23825,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24106,7 +24109,7 @@
         <v>1.83</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
@@ -24234,7 +24237,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24646,7 +24649,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -25345,7 +25348,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ116">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR116">
         <v>1.43</v>
@@ -27324,7 +27327,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27530,7 +27533,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -28020,7 +28023,7 @@
         <v>0.57</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ129">
         <v>1.29</v>
@@ -28560,7 +28563,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28766,7 +28769,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28847,7 +28850,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ133">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR133">
         <v>1.39</v>
@@ -28972,7 +28975,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29462,7 +29465,7 @@
         <v>0.57</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ136">
         <v>0.35</v>
@@ -29590,7 +29593,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -30414,7 +30417,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30620,7 +30623,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -31032,7 +31035,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31444,7 +31447,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31650,7 +31653,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31856,7 +31859,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32268,7 +32271,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32474,7 +32477,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32761,7 +32764,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ152">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR152">
         <v>1.65</v>
@@ -32964,7 +32967,7 @@
         <v>1.86</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ153">
         <v>2.06</v>
@@ -33504,7 +33507,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33585,7 +33588,7 @@
         <v>1</v>
       </c>
       <c r="AQ156">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR156">
         <v>1.54</v>
@@ -33710,7 +33713,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33916,7 +33919,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34740,7 +34743,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -35152,7 +35155,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35770,7 +35773,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -36388,7 +36391,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -37006,7 +37009,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37212,7 +37215,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37496,7 +37499,7 @@
         <v>1.22</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ175">
         <v>1.38</v>
@@ -37624,7 +37627,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37830,7 +37833,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38448,7 +38451,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38860,7 +38863,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39478,7 +39481,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -40508,7 +40511,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -41126,7 +41129,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41204,7 +41207,7 @@
         <v>0.5</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ193">
         <v>0.63</v>
@@ -41332,7 +41335,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41538,7 +41541,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41950,7 +41953,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42156,7 +42159,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42237,7 +42240,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ198">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR198">
         <v>1.27</v>
@@ -42774,7 +42777,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42980,7 +42983,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43598,7 +43601,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -44091,7 +44094,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ207">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR207">
         <v>1.63</v>
@@ -44422,7 +44425,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44500,7 +44503,7 @@
         <v>1.36</v>
       </c>
       <c r="AP209">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ209">
         <v>1.44</v>
@@ -44628,7 +44631,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -45040,7 +45043,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45452,7 +45455,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -46070,7 +46073,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -46354,7 +46357,7 @@
         <v>1.08</v>
       </c>
       <c r="AP218">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ218">
         <v>1</v>
@@ -46769,7 +46772,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ220">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR220">
         <v>1.76</v>
@@ -47512,7 +47515,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47718,7 +47721,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -48542,7 +48545,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48748,7 +48751,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -49366,7 +49369,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49572,7 +49575,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -50680,7 +50683,7 @@
         <v>1.62</v>
       </c>
       <c r="AP239">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ239">
         <v>1.71</v>
@@ -51014,7 +51017,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51426,7 +51429,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51507,7 +51510,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ243">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR243">
         <v>1.48</v>
@@ -51632,7 +51635,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -52456,7 +52459,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52868,7 +52871,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53280,7 +53283,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53486,7 +53489,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -53773,7 +53776,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ254">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR254">
         <v>1.44</v>
@@ -53976,7 +53979,7 @@
         <v>0.5</v>
       </c>
       <c r="AP255">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ255">
         <v>0.63</v>
@@ -54310,7 +54313,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54516,7 +54519,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -55546,7 +55549,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55752,7 +55755,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55958,7 +55961,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56370,7 +56373,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56576,7 +56579,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56782,7 +56785,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56988,7 +56991,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57194,7 +57197,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57400,7 +57403,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57478,7 +57481,7 @@
         <v>0.73</v>
       </c>
       <c r="AP272">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ272">
         <v>0.82</v>
@@ -57606,7 +57609,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57812,7 +57815,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -58018,7 +58021,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58224,7 +58227,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58305,7 +58308,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ276">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR276">
         <v>1.34</v>
@@ -58636,7 +58639,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58842,7 +58845,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -59048,7 +59051,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -60078,7 +60081,7 @@
         <v>88</v>
       </c>
       <c r="P285" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60696,7 +60699,7 @@
         <v>262</v>
       </c>
       <c r="P288" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -60902,7 +60905,7 @@
         <v>263</v>
       </c>
       <c r="P289" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q289">
         <v>2.03</v>
@@ -61108,7 +61111,7 @@
         <v>264</v>
       </c>
       <c r="P290" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q290">
         <v>3</v>
@@ -61932,7 +61935,7 @@
         <v>267</v>
       </c>
       <c r="P294" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q294">
         <v>3.94</v>
@@ -62138,7 +62141,7 @@
         <v>88</v>
       </c>
       <c r="P295" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q295">
         <v>6.5</v>
@@ -62344,7 +62347,7 @@
         <v>268</v>
       </c>
       <c r="P296" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q296">
         <v>1.93</v>
@@ -62550,7 +62553,7 @@
         <v>269</v>
       </c>
       <c r="P297" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q297">
         <v>2.97</v>
@@ -62707,6 +62710,212 @@
       </c>
       <c r="BP297">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>6775925</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45425.67708333334</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>81</v>
+      </c>
+      <c r="H298" t="s">
+        <v>73</v>
+      </c>
+      <c r="I298">
+        <v>2</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>2</v>
+      </c>
+      <c r="L298">
+        <v>3</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298" t="s">
+        <v>270</v>
+      </c>
+      <c r="P298" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q298">
+        <v>2.75</v>
+      </c>
+      <c r="R298">
+        <v>2.1</v>
+      </c>
+      <c r="S298">
+        <v>3.75</v>
+      </c>
+      <c r="T298">
+        <v>1.41</v>
+      </c>
+      <c r="U298">
+        <v>2.7</v>
+      </c>
+      <c r="V298">
+        <v>2.95</v>
+      </c>
+      <c r="W298">
+        <v>1.35</v>
+      </c>
+      <c r="X298">
+        <v>7.4</v>
+      </c>
+      <c r="Y298">
+        <v>1.06</v>
+      </c>
+      <c r="Z298">
+        <v>2.06</v>
+      </c>
+      <c r="AA298">
+        <v>3.1</v>
+      </c>
+      <c r="AB298">
+        <v>3.1</v>
+      </c>
+      <c r="AC298">
+        <v>1.03</v>
+      </c>
+      <c r="AD298">
+        <v>9</v>
+      </c>
+      <c r="AE298">
+        <v>1.33</v>
+      </c>
+      <c r="AF298">
+        <v>3.2</v>
+      </c>
+      <c r="AG298">
+        <v>2.04</v>
+      </c>
+      <c r="AH298">
+        <v>1.82</v>
+      </c>
+      <c r="AI298">
+        <v>1.8</v>
+      </c>
+      <c r="AJ298">
+        <v>1.95</v>
+      </c>
+      <c r="AK298">
+        <v>1.3</v>
+      </c>
+      <c r="AL298">
+        <v>1.25</v>
+      </c>
+      <c r="AM298">
+        <v>1.7</v>
+      </c>
+      <c r="AN298">
+        <v>1.5</v>
+      </c>
+      <c r="AO298">
+        <v>1.19</v>
+      </c>
+      <c r="AP298">
+        <v>1.59</v>
+      </c>
+      <c r="AQ298">
+        <v>1.12</v>
+      </c>
+      <c r="AR298">
+        <v>1.33</v>
+      </c>
+      <c r="AS298">
+        <v>1.29</v>
+      </c>
+      <c r="AT298">
+        <v>2.62</v>
+      </c>
+      <c r="AU298">
+        <v>5</v>
+      </c>
+      <c r="AV298">
+        <v>2</v>
+      </c>
+      <c r="AW298">
+        <v>9</v>
+      </c>
+      <c r="AX298">
+        <v>6</v>
+      </c>
+      <c r="AY298">
+        <v>14</v>
+      </c>
+      <c r="AZ298">
+        <v>8</v>
+      </c>
+      <c r="BA298">
+        <v>3</v>
+      </c>
+      <c r="BB298">
+        <v>8</v>
+      </c>
+      <c r="BC298">
+        <v>11</v>
+      </c>
+      <c r="BD298">
+        <v>1.71</v>
+      </c>
+      <c r="BE298">
+        <v>9.4</v>
+      </c>
+      <c r="BF298">
+        <v>2.41</v>
+      </c>
+      <c r="BG298">
+        <v>1.14</v>
+      </c>
+      <c r="BH298">
+        <v>4.85</v>
+      </c>
+      <c r="BI298">
+        <v>1.3</v>
+      </c>
+      <c r="BJ298">
+        <v>3.24</v>
+      </c>
+      <c r="BK298">
+        <v>1.5</v>
+      </c>
+      <c r="BL298">
+        <v>2.35</v>
+      </c>
+      <c r="BM298">
+        <v>1.86</v>
+      </c>
+      <c r="BN298">
+        <v>1.84</v>
+      </c>
+      <c r="BO298">
+        <v>2.38</v>
+      </c>
+      <c r="BP298">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1524,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ7">
         <v>1.31</v>
@@ -3512,7 +3512,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR27">
         <v>1.18</v>
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
         <v>1.12</v>
@@ -10928,7 +10928,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -12573,7 +12573,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ54">
         <v>1.71</v>
@@ -13812,7 +13812,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ65">
         <v>1.44</v>
@@ -18138,7 +18138,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ81">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR81">
         <v>1.38</v>
@@ -18959,7 +18959,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
@@ -21640,7 +21640,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -23491,7 +23491,7 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107">
         <v>1.44</v>
@@ -24112,7 +24112,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ110">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR110">
         <v>1.24</v>
@@ -25966,7 +25966,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ119">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR119">
         <v>1.56</v>
@@ -26169,7 +26169,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -30083,7 +30083,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139">
         <v>0.63</v>
@@ -31528,7 +31528,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -35854,7 +35854,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ167">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR167">
         <v>1.52</v>
@@ -36675,7 +36675,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP171">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ171">
         <v>0.35</v>
@@ -37911,7 +37911,7 @@
         <v>1.22</v>
       </c>
       <c r="AP177">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177">
         <v>1</v>
@@ -38532,7 +38532,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ180">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR180">
         <v>1.42</v>
@@ -41619,7 +41619,7 @@
         <v>2</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ195">
         <v>2.06</v>
@@ -43682,7 +43682,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ205">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR205">
         <v>1.34</v>
@@ -45327,7 +45327,7 @@
         <v>2.18</v>
       </c>
       <c r="AP213">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ213">
         <v>2.06</v>
@@ -47390,7 +47390,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ223">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR223">
         <v>1.68</v>
@@ -48623,7 +48623,7 @@
         <v>1.25</v>
       </c>
       <c r="AP229">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229">
         <v>1.29</v>
@@ -51716,7 +51716,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ244">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR244">
         <v>1.42</v>
@@ -51919,7 +51919,7 @@
         <v>0.54</v>
       </c>
       <c r="AP245">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ245">
         <v>0.63</v>
@@ -55218,7 +55218,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ261">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR261">
         <v>1.41</v>
@@ -55833,7 +55833,7 @@
         <v>1.21</v>
       </c>
       <c r="AP264">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ264">
         <v>1.29</v>
@@ -60159,7 +60159,7 @@
         <v>2</v>
       </c>
       <c r="AP285">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ285">
         <v>2.06</v>
@@ -60574,7 +60574,7 @@
         <v>1</v>
       </c>
       <c r="AQ287">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR287">
         <v>1.54</v>
@@ -62916,6 +62916,212 @@
       </c>
       <c r="BP298">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>6775933</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45428.67708333334</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>75</v>
+      </c>
+      <c r="H299" t="s">
+        <v>86</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="N299">
+        <v>2</v>
+      </c>
+      <c r="O299" t="s">
+        <v>250</v>
+      </c>
+      <c r="P299" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q299">
+        <v>2.83</v>
+      </c>
+      <c r="R299">
+        <v>2.06</v>
+      </c>
+      <c r="S299">
+        <v>3.76</v>
+      </c>
+      <c r="T299">
+        <v>1.43</v>
+      </c>
+      <c r="U299">
+        <v>2.7</v>
+      </c>
+      <c r="V299">
+        <v>2.99</v>
+      </c>
+      <c r="W299">
+        <v>1.36</v>
+      </c>
+      <c r="X299">
+        <v>7.8</v>
+      </c>
+      <c r="Y299">
+        <v>1.06</v>
+      </c>
+      <c r="Z299">
+        <v>2.2</v>
+      </c>
+      <c r="AA299">
+        <v>3.25</v>
+      </c>
+      <c r="AB299">
+        <v>3.14</v>
+      </c>
+      <c r="AC299">
+        <v>1.03</v>
+      </c>
+      <c r="AD299">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE299">
+        <v>1.32</v>
+      </c>
+      <c r="AF299">
+        <v>2.98</v>
+      </c>
+      <c r="AG299">
+        <v>2.05</v>
+      </c>
+      <c r="AH299">
+        <v>1.7</v>
+      </c>
+      <c r="AI299">
+        <v>1.81</v>
+      </c>
+      <c r="AJ299">
+        <v>1.89</v>
+      </c>
+      <c r="AK299">
+        <v>1.34</v>
+      </c>
+      <c r="AL299">
+        <v>1.31</v>
+      </c>
+      <c r="AM299">
+        <v>1.61</v>
+      </c>
+      <c r="AN299">
+        <v>1.5</v>
+      </c>
+      <c r="AO299">
+        <v>1.38</v>
+      </c>
+      <c r="AP299">
+        <v>1.47</v>
+      </c>
+      <c r="AQ299">
+        <v>1.35</v>
+      </c>
+      <c r="AR299">
+        <v>1.5</v>
+      </c>
+      <c r="AS299">
+        <v>1.25</v>
+      </c>
+      <c r="AT299">
+        <v>2.75</v>
+      </c>
+      <c r="AU299">
+        <v>5</v>
+      </c>
+      <c r="AV299">
+        <v>4</v>
+      </c>
+      <c r="AW299">
+        <v>8</v>
+      </c>
+      <c r="AX299">
+        <v>7</v>
+      </c>
+      <c r="AY299">
+        <v>13</v>
+      </c>
+      <c r="AZ299">
+        <v>11</v>
+      </c>
+      <c r="BA299">
+        <v>7</v>
+      </c>
+      <c r="BB299">
+        <v>7</v>
+      </c>
+      <c r="BC299">
+        <v>14</v>
+      </c>
+      <c r="BD299">
+        <v>1.99</v>
+      </c>
+      <c r="BE299">
+        <v>9.1</v>
+      </c>
+      <c r="BF299">
+        <v>2.03</v>
+      </c>
+      <c r="BG299">
+        <v>1.15</v>
+      </c>
+      <c r="BH299">
+        <v>4.45</v>
+      </c>
+      <c r="BI299">
+        <v>1.31</v>
+      </c>
+      <c r="BJ299">
+        <v>3.04</v>
+      </c>
+      <c r="BK299">
+        <v>1.56</v>
+      </c>
+      <c r="BL299">
+        <v>2.21</v>
+      </c>
+      <c r="BM299">
+        <v>1.95</v>
+      </c>
+      <c r="BN299">
+        <v>1.76</v>
+      </c>
+      <c r="BO299">
+        <v>2.51</v>
+      </c>
+      <c r="BP299">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="386">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,12 @@
     <t>['7', '19', '55']</t>
   </si>
   <si>
+    <t>['71', '83']</t>
+  </si>
+  <si>
+    <t>['20', '25', '28', '57', '65']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1163,6 +1169,9 @@
   </si>
   <si>
     <t>['14', '47', '90+4']</t>
+  </si>
+  <si>
+    <t>['68', '84']</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP299"/>
+  <dimension ref="A1:BP301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1861,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ2">
         <v>0.9399999999999999</v>
@@ -1989,7 +1998,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2276,7 +2285,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ4">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2607,7 +2616,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -3019,7 +3028,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3097,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ8">
         <v>1.44</v>
@@ -3637,7 +3646,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3843,7 +3852,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -4461,7 +4470,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4748,7 +4757,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5775,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ21">
         <v>1.44</v>
@@ -6805,7 +6814,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26">
         <v>2.06</v>
@@ -7345,7 +7354,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7426,7 +7435,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ29">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR29">
         <v>0.46</v>
@@ -7632,7 +7641,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7757,7 +7766,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7963,7 +7972,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8993,7 +9002,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9199,7 +9208,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9277,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ38">
         <v>1.31</v>
@@ -9611,7 +9620,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -10435,7 +10444,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10641,7 +10650,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10847,7 +10856,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10925,7 +10934,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ46">
         <v>1.35</v>
@@ -11053,7 +11062,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11259,7 +11268,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11465,7 +11474,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11671,7 +11680,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11877,7 +11886,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11958,7 +11967,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ51">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.22</v>
@@ -12289,7 +12298,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12495,7 +12504,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12701,7 +12710,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -12782,7 +12791,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR55">
         <v>2</v>
@@ -13319,7 +13328,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13603,7 +13612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ59">
         <v>0.63</v>
@@ -13731,7 +13740,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -14143,7 +14152,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14349,7 +14358,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14427,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ63">
         <v>0.35</v>
@@ -14967,7 +14976,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15254,7 +15263,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ67">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR67">
         <v>1.47</v>
@@ -15379,7 +15388,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15585,7 +15594,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15791,7 +15800,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16203,7 +16212,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16409,7 +16418,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16490,7 +16499,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.8</v>
@@ -16615,7 +16624,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -17027,7 +17036,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17311,7 +17320,7 @@
         <v>0.25</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ77">
         <v>0.82</v>
@@ -17439,7 +17448,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17851,7 +17860,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -18057,7 +18066,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18341,7 +18350,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ82">
         <v>1.12</v>
@@ -18550,7 +18559,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR83">
         <v>1.33</v>
@@ -18881,7 +18890,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -18962,7 +18971,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ85">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -19499,7 +19508,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19911,7 +19920,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20529,7 +20538,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20607,7 +20616,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ93">
         <v>2.06</v>
@@ -21147,7 +21156,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21559,7 +21568,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -22049,7 +22058,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -22383,7 +22392,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22464,7 +22473,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ102">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR102">
         <v>1.56</v>
@@ -22589,7 +22598,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22670,7 +22679,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR103">
         <v>1.57</v>
@@ -22795,7 +22804,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23413,7 +23422,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23825,7 +23834,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24237,7 +24246,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24521,7 +24530,7 @@
         <v>0.17</v>
       </c>
       <c r="AP112">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ112">
         <v>0.82</v>
@@ -24649,7 +24658,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -25139,7 +25148,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ115">
         <v>1.71</v>
@@ -26378,7 +26387,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ121">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR121">
         <v>1.46</v>
@@ -26996,7 +27005,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ124">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR124">
         <v>1.39</v>
@@ -27327,7 +27336,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27405,7 +27414,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ126">
         <v>1.44</v>
@@ -27533,7 +27542,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -28563,7 +28572,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28769,7 +28778,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28975,7 +28984,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29053,7 +29062,7 @@
         <v>0.83</v>
       </c>
       <c r="AP134">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ134">
         <v>1.29</v>
@@ -29593,7 +29602,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -30417,7 +30426,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30495,10 +30504,10 @@
         <v>0.57</v>
       </c>
       <c r="AP141">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ141">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR141">
         <v>1.45</v>
@@ -30623,7 +30632,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -31035,7 +31044,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31319,10 +31328,10 @@
         <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ145">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR145">
         <v>1.63</v>
@@ -31447,7 +31456,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31653,7 +31662,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31859,7 +31868,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32271,7 +32280,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32477,7 +32486,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33507,7 +33516,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33713,7 +33722,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33919,7 +33928,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34412,7 +34421,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34743,7 +34752,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -35155,7 +35164,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35439,7 +35448,7 @@
         <v>1.22</v>
       </c>
       <c r="AP165">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ165">
         <v>1.44</v>
@@ -35773,7 +35782,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -36060,7 +36069,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ168">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR168">
         <v>1.31</v>
@@ -36391,7 +36400,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36469,7 +36478,7 @@
         <v>0.78</v>
       </c>
       <c r="AP170">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -37009,7 +37018,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37215,7 +37224,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37296,7 +37305,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ174">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR174">
         <v>1.43</v>
@@ -37502,7 +37511,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ175">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR175">
         <v>1.23</v>
@@ -37627,7 +37636,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37833,7 +37842,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38451,7 +38460,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38863,7 +38872,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39147,7 +39156,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ183">
         <v>1.31</v>
@@ -39481,7 +39490,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39559,7 +39568,7 @@
         <v>1.9</v>
       </c>
       <c r="AP185">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ185">
         <v>2.06</v>
@@ -40511,7 +40520,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -41004,7 +41013,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ192">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR192">
         <v>1.59</v>
@@ -41129,7 +41138,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41210,7 +41219,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ193">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR193">
         <v>1.26</v>
@@ -41335,7 +41344,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41541,7 +41550,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41953,7 +41962,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42159,7 +42168,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42777,7 +42786,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42983,7 +42992,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43267,7 +43276,7 @@
         <v>0.64</v>
       </c>
       <c r="AP203">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ203">
         <v>0.63</v>
@@ -43601,7 +43610,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -43885,7 +43894,7 @@
         <v>0.45</v>
       </c>
       <c r="AP206">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ206">
         <v>0.35</v>
@@ -44425,7 +44434,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44631,7 +44640,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -45043,7 +45052,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45124,7 +45133,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ212">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR212">
         <v>1.27</v>
@@ -45455,7 +45464,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -46073,7 +46082,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -46154,7 +46163,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ217">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR217">
         <v>1.58</v>
@@ -46975,7 +46984,7 @@
         <v>2</v>
       </c>
       <c r="AP221">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ221">
         <v>2.06</v>
@@ -47387,7 +47396,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ223">
         <v>1.35</v>
@@ -47515,7 +47524,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47721,7 +47730,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -48545,7 +48554,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48751,7 +48760,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -49244,7 +49253,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ232">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR232">
         <v>1.36</v>
@@ -49369,7 +49378,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49575,7 +49584,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -49862,7 +49871,7 @@
         <v>1</v>
       </c>
       <c r="AQ235">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR235">
         <v>1.51</v>
@@ -50271,7 +50280,7 @@
         <v>1</v>
       </c>
       <c r="AP237">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ237">
         <v>1</v>
@@ -51017,7 +51026,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51429,7 +51438,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51507,7 +51516,7 @@
         <v>1.15</v>
       </c>
       <c r="AP243">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ243">
         <v>1.12</v>
@@ -51635,7 +51644,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51922,7 +51931,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ245">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR245">
         <v>1.47</v>
@@ -52459,7 +52468,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52871,7 +52880,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53283,7 +53292,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53489,7 +53498,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -53570,7 +53579,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ253">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR253">
         <v>1.43</v>
@@ -54313,7 +54322,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54391,7 +54400,7 @@
         <v>2</v>
       </c>
       <c r="AP257">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ257">
         <v>2.06</v>
@@ -54519,7 +54528,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -54597,7 +54606,7 @@
         <v>1.57</v>
       </c>
       <c r="AP258">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ258">
         <v>1.71</v>
@@ -55549,7 +55558,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55755,7 +55764,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55961,7 +55970,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56373,7 +56382,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56454,7 +56463,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ267">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR267">
         <v>1.43</v>
@@ -56579,7 +56588,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56785,7 +56794,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56991,7 +57000,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57197,7 +57206,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57278,7 +57287,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ271">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR271">
         <v>1.6</v>
@@ -57403,7 +57412,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57609,7 +57618,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57815,7 +57824,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -58021,7 +58030,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58227,7 +58236,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58639,7 +58648,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58845,7 +58854,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -59051,7 +59060,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -59129,7 +59138,7 @@
         <v>2.07</v>
       </c>
       <c r="AP280">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ280">
         <v>2.06</v>
@@ -59338,7 +59347,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ281">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR281">
         <v>1.53</v>
@@ -60081,7 +60090,7 @@
         <v>88</v>
       </c>
       <c r="P285" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60368,7 +60377,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ286">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR286">
         <v>1.78</v>
@@ -60699,7 +60708,7 @@
         <v>262</v>
       </c>
       <c r="P288" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -60777,7 +60786,7 @@
         <v>1.2</v>
       </c>
       <c r="AP288">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ288">
         <v>1.29</v>
@@ -60905,7 +60914,7 @@
         <v>263</v>
       </c>
       <c r="P289" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q289">
         <v>2.03</v>
@@ -61111,7 +61120,7 @@
         <v>264</v>
       </c>
       <c r="P290" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q290">
         <v>3</v>
@@ -61935,7 +61944,7 @@
         <v>267</v>
       </c>
       <c r="P294" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q294">
         <v>3.94</v>
@@ -62141,7 +62150,7 @@
         <v>88</v>
       </c>
       <c r="P295" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q295">
         <v>6.5</v>
@@ -62347,7 +62356,7 @@
         <v>268</v>
       </c>
       <c r="P296" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q296">
         <v>1.93</v>
@@ -62553,7 +62562,7 @@
         <v>269</v>
       </c>
       <c r="P297" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q297">
         <v>2.97</v>
@@ -62965,7 +62974,7 @@
         <v>250</v>
       </c>
       <c r="P299" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q299">
         <v>2.83</v>
@@ -63122,6 +63131,418 @@
       </c>
       <c r="BP299">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>6775939</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45429.58333333334</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>70</v>
+      </c>
+      <c r="H300" t="s">
+        <v>84</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>3</v>
+      </c>
+      <c r="O300" t="s">
+        <v>271</v>
+      </c>
+      <c r="P300" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q300">
+        <v>2.3</v>
+      </c>
+      <c r="R300">
+        <v>2.25</v>
+      </c>
+      <c r="S300">
+        <v>4.75</v>
+      </c>
+      <c r="T300">
+        <v>1.35</v>
+      </c>
+      <c r="U300">
+        <v>2.95</v>
+      </c>
+      <c r="V300">
+        <v>2.6</v>
+      </c>
+      <c r="W300">
+        <v>1.44</v>
+      </c>
+      <c r="X300">
+        <v>6</v>
+      </c>
+      <c r="Y300">
+        <v>1.1</v>
+      </c>
+      <c r="Z300">
+        <v>1.67</v>
+      </c>
+      <c r="AA300">
+        <v>3.6</v>
+      </c>
+      <c r="AB300">
+        <v>4.2</v>
+      </c>
+      <c r="AC300">
+        <v>1.04</v>
+      </c>
+      <c r="AD300">
+        <v>9</v>
+      </c>
+      <c r="AE300">
+        <v>1.25</v>
+      </c>
+      <c r="AF300">
+        <v>3.7</v>
+      </c>
+      <c r="AG300">
+        <v>1.75</v>
+      </c>
+      <c r="AH300">
+        <v>1.95</v>
+      </c>
+      <c r="AI300">
+        <v>1.7</v>
+      </c>
+      <c r="AJ300">
+        <v>1.95</v>
+      </c>
+      <c r="AK300">
+        <v>1.17</v>
+      </c>
+      <c r="AL300">
+        <v>1.2</v>
+      </c>
+      <c r="AM300">
+        <v>2.05</v>
+      </c>
+      <c r="AN300">
+        <v>1.69</v>
+      </c>
+      <c r="AO300">
+        <v>0.63</v>
+      </c>
+      <c r="AP300">
+        <v>1.76</v>
+      </c>
+      <c r="AQ300">
+        <v>0.59</v>
+      </c>
+      <c r="AR300">
+        <v>1.72</v>
+      </c>
+      <c r="AS300">
+        <v>1.26</v>
+      </c>
+      <c r="AT300">
+        <v>2.98</v>
+      </c>
+      <c r="AU300">
+        <v>5</v>
+      </c>
+      <c r="AV300">
+        <v>8</v>
+      </c>
+      <c r="AW300">
+        <v>14</v>
+      </c>
+      <c r="AX300">
+        <v>4</v>
+      </c>
+      <c r="AY300">
+        <v>19</v>
+      </c>
+      <c r="AZ300">
+        <v>12</v>
+      </c>
+      <c r="BA300">
+        <v>6</v>
+      </c>
+      <c r="BB300">
+        <v>5</v>
+      </c>
+      <c r="BC300">
+        <v>11</v>
+      </c>
+      <c r="BD300">
+        <v>1.51</v>
+      </c>
+      <c r="BE300">
+        <v>9.4</v>
+      </c>
+      <c r="BF300">
+        <v>2.97</v>
+      </c>
+      <c r="BG300">
+        <v>1.29</v>
+      </c>
+      <c r="BH300">
+        <v>3.4</v>
+      </c>
+      <c r="BI300">
+        <v>1.47</v>
+      </c>
+      <c r="BJ300">
+        <v>2.63</v>
+      </c>
+      <c r="BK300">
+        <v>1.8</v>
+      </c>
+      <c r="BL300">
+        <v>2</v>
+      </c>
+      <c r="BM300">
+        <v>2.25</v>
+      </c>
+      <c r="BN300">
+        <v>1.62</v>
+      </c>
+      <c r="BO300">
+        <v>2.8</v>
+      </c>
+      <c r="BP300">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>6775934</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45429.58333333334</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>76</v>
+      </c>
+      <c r="H301" t="s">
+        <v>74</v>
+      </c>
+      <c r="I301">
+        <v>3</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>3</v>
+      </c>
+      <c r="L301">
+        <v>5</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
+      </c>
+      <c r="N301">
+        <v>7</v>
+      </c>
+      <c r="O301" t="s">
+        <v>272</v>
+      </c>
+      <c r="P301" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q301">
+        <v>2.48</v>
+      </c>
+      <c r="R301">
+        <v>2.3</v>
+      </c>
+      <c r="S301">
+        <v>3.74</v>
+      </c>
+      <c r="T301">
+        <v>1.3</v>
+      </c>
+      <c r="U301">
+        <v>3.34</v>
+      </c>
+      <c r="V301">
+        <v>2.38</v>
+      </c>
+      <c r="W301">
+        <v>1.54</v>
+      </c>
+      <c r="X301">
+        <v>5.5</v>
+      </c>
+      <c r="Y301">
+        <v>1.13</v>
+      </c>
+      <c r="Z301">
+        <v>2.1</v>
+      </c>
+      <c r="AA301">
+        <v>3.5</v>
+      </c>
+      <c r="AB301">
+        <v>2.8</v>
+      </c>
+      <c r="AC301">
+        <v>1.02</v>
+      </c>
+      <c r="AD301">
+        <v>1.02</v>
+      </c>
+      <c r="AE301">
+        <v>1.16</v>
+      </c>
+      <c r="AF301">
+        <v>4.3</v>
+      </c>
+      <c r="AG301">
+        <v>1.55</v>
+      </c>
+      <c r="AH301">
+        <v>2.3</v>
+      </c>
+      <c r="AI301">
+        <v>1.53</v>
+      </c>
+      <c r="AJ301">
+        <v>2.33</v>
+      </c>
+      <c r="AK301">
+        <v>1.31</v>
+      </c>
+      <c r="AL301">
+        <v>1.26</v>
+      </c>
+      <c r="AM301">
+        <v>1.76</v>
+      </c>
+      <c r="AN301">
+        <v>1.25</v>
+      </c>
+      <c r="AO301">
+        <v>1.38</v>
+      </c>
+      <c r="AP301">
+        <v>1.35</v>
+      </c>
+      <c r="AQ301">
+        <v>1.29</v>
+      </c>
+      <c r="AR301">
+        <v>1.47</v>
+      </c>
+      <c r="AS301">
+        <v>1.35</v>
+      </c>
+      <c r="AT301">
+        <v>2.82</v>
+      </c>
+      <c r="AU301">
+        <v>8</v>
+      </c>
+      <c r="AV301">
+        <v>8</v>
+      </c>
+      <c r="AW301">
+        <v>6</v>
+      </c>
+      <c r="AX301">
+        <v>6</v>
+      </c>
+      <c r="AY301">
+        <v>14</v>
+      </c>
+      <c r="AZ301">
+        <v>14</v>
+      </c>
+      <c r="BA301">
+        <v>3</v>
+      </c>
+      <c r="BB301">
+        <v>8</v>
+      </c>
+      <c r="BC301">
+        <v>11</v>
+      </c>
+      <c r="BD301">
+        <v>1.67</v>
+      </c>
+      <c r="BE301">
+        <v>7.7</v>
+      </c>
+      <c r="BF301">
+        <v>2.67</v>
+      </c>
+      <c r="BG301">
+        <v>1.16</v>
+      </c>
+      <c r="BH301">
+        <v>4.35</v>
+      </c>
+      <c r="BI301">
+        <v>1.33</v>
+      </c>
+      <c r="BJ301">
+        <v>2.93</v>
+      </c>
+      <c r="BK301">
+        <v>1.64</v>
+      </c>
+      <c r="BL301">
+        <v>2.21</v>
+      </c>
+      <c r="BM301">
+        <v>2.02</v>
+      </c>
+      <c r="BN301">
+        <v>1.76</v>
+      </c>
+      <c r="BO301">
+        <v>2.6</v>
+      </c>
+      <c r="BP301">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="389">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -838,6 +838,9 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['4', '83']</t>
+  </si>
+  <si>
     <t>['26', '47']</t>
   </si>
   <si>
@@ -1175,6 +1178,9 @@
   </si>
   <si>
     <t>['68', '84']</t>
+  </si>
+  <si>
+    <t>['24', '65']</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP302"/>
+  <dimension ref="A1:BP304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2001,7 +2007,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -2082,7 +2088,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ3">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2285,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4">
         <v>0.59</v>
@@ -2491,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ5">
         <v>0.65</v>
@@ -2619,7 +2625,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2700,7 +2706,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3031,7 +3037,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3649,7 +3655,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
@@ -3855,7 +3861,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q12">
         <v>3.24</v>
@@ -4473,7 +4479,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5581,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ20">
         <v>0.35</v>
@@ -5790,7 +5796,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -6820,7 +6826,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>1.41</v>
@@ -7023,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
         <v>1.35</v>
@@ -7357,7 +7363,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -7769,7 +7775,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7975,7 +7981,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -9005,7 +9011,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q37">
         <v>2.67</v>
@@ -9211,7 +9217,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q38">
         <v>2.07</v>
@@ -9495,7 +9501,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ39">
         <v>0.65</v>
@@ -9623,7 +9629,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q40">
         <v>3.15</v>
@@ -9704,7 +9710,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ40">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.26</v>
@@ -10447,7 +10453,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10653,7 +10659,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q45">
         <v>3.5</v>
@@ -10859,7 +10865,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11065,7 +11071,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11271,7 +11277,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -11477,7 +11483,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q49">
         <v>2.56</v>
@@ -11683,7 +11689,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11761,7 +11767,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ50">
         <v>2.06</v>
@@ -11889,7 +11895,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -12301,7 +12307,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q53">
         <v>2.47</v>
@@ -12382,7 +12388,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ53">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR53">
         <v>1.2</v>
@@ -12507,7 +12513,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12713,7 +12719,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q55">
         <v>2.3</v>
@@ -13331,7 +13337,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13743,7 +13749,7 @@
         <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q60">
         <v>2.85</v>
@@ -14155,7 +14161,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14236,7 +14242,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ62">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -14361,7 +14367,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14645,7 +14651,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64">
         <v>0.82</v>
@@ -14979,7 +14985,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q66">
         <v>2.78</v>
@@ -15391,7 +15397,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q68">
         <v>2.35</v>
@@ -15472,7 +15478,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ68">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR68">
         <v>1.25</v>
@@ -15597,7 +15603,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q69">
         <v>2.45</v>
@@ -15675,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ69">
         <v>1.71</v>
@@ -15803,7 +15809,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16215,7 +16221,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16421,7 +16427,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16627,7 +16633,7 @@
         <v>88</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -17039,7 +17045,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>2.94</v>
@@ -17451,7 +17457,7 @@
         <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17735,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17863,7 +17869,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q80">
         <v>3.06</v>
@@ -17944,7 +17950,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ80">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -18069,7 +18075,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q81">
         <v>3.15</v>
@@ -18893,7 +18899,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q85">
         <v>3.3</v>
@@ -19511,7 +19517,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19592,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR88">
         <v>1.61</v>
@@ -19923,7 +19929,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -20004,7 +20010,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ90">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR90">
         <v>1.58</v>
@@ -20207,7 +20213,7 @@
         <v>1.25</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ91">
         <v>1.29</v>
@@ -20541,7 +20547,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -21159,7 +21165,7 @@
         <v>88</v>
       </c>
       <c r="P96" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q96">
         <v>2.5</v>
@@ -21237,7 +21243,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96">
         <v>1.71</v>
@@ -21571,7 +21577,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -22395,7 +22401,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -22473,7 +22479,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ102">
         <v>0.59</v>
@@ -22601,7 +22607,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q103">
         <v>3.72</v>
@@ -22807,7 +22813,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23091,7 +23097,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ105">
         <v>1.29</v>
@@ -23425,7 +23431,7 @@
         <v>88</v>
       </c>
       <c r="P107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q107">
         <v>2.91</v>
@@ -23506,7 +23512,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR107">
         <v>1.49</v>
@@ -23712,7 +23718,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ108">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR108">
         <v>1.4</v>
@@ -23837,7 +23843,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24249,7 +24255,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q111">
         <v>2.9</v>
@@ -24661,7 +24667,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q113">
         <v>3.74</v>
@@ -25975,7 +25981,7 @@
         <v>1.57</v>
       </c>
       <c r="AP119">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ119">
         <v>1.35</v>
@@ -26593,7 +26599,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ122">
         <v>1.29</v>
@@ -27214,7 +27220,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR125">
         <v>1.26</v>
@@ -27339,7 +27345,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27420,7 +27426,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR126">
         <v>1.46</v>
@@ -27545,7 +27551,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -28575,7 +28581,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q132">
         <v>2.8</v>
@@ -28781,7 +28787,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28987,7 +28993,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29605,7 +29611,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29892,7 +29898,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ138">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -30429,7 +30435,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>2.3</v>
@@ -30635,7 +30641,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q142">
         <v>2.55</v>
@@ -30716,7 +30722,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR142">
         <v>1.54</v>
@@ -30919,7 +30925,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ143">
         <v>0.9399999999999999</v>
@@ -31047,7 +31053,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q144">
         <v>2.3</v>
@@ -31125,7 +31131,7 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ144">
         <v>1.31</v>
@@ -31459,7 +31465,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31665,7 +31671,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q147">
         <v>2.45</v>
@@ -31871,7 +31877,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32283,7 +32289,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32489,7 +32495,7 @@
         <v>88</v>
       </c>
       <c r="P151" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33519,7 +33525,7 @@
         <v>88</v>
       </c>
       <c r="P156" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q156">
         <v>3.9</v>
@@ -33725,7 +33731,7 @@
         <v>151</v>
       </c>
       <c r="P157" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q157">
         <v>2.8</v>
@@ -33931,7 +33937,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q158">
         <v>5.35</v>
@@ -34755,7 +34761,7 @@
         <v>196</v>
       </c>
       <c r="P162" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q162">
         <v>4.07</v>
@@ -35167,7 +35173,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -35245,10 +35251,10 @@
         <v>2.11</v>
       </c>
       <c r="AP164">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ164">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR164">
         <v>1.68</v>
@@ -35785,7 +35791,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q167">
         <v>2.65</v>
@@ -36403,7 +36409,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36893,10 +36899,10 @@
         <v>1.38</v>
       </c>
       <c r="AP172">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ172">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR172">
         <v>1.41</v>
@@ -37021,7 +37027,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>5.25</v>
@@ -37227,7 +37233,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q174">
         <v>2.24</v>
@@ -37639,7 +37645,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q176">
         <v>3.68</v>
@@ -37845,7 +37851,7 @@
         <v>207</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -38463,7 +38469,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q180">
         <v>3.75</v>
@@ -38747,7 +38753,7 @@
         <v>0.5</v>
       </c>
       <c r="AP181">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ181">
         <v>0.82</v>
@@ -38875,7 +38881,7 @@
         <v>211</v>
       </c>
       <c r="P182" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q182">
         <v>2.02</v>
@@ -39365,7 +39371,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ184">
         <v>0.9399999999999999</v>
@@ -39493,7 +39499,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39574,7 +39580,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ185">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR185">
         <v>1.66</v>
@@ -39780,7 +39786,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ186">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR186">
         <v>1.37</v>
@@ -40523,7 +40529,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q190">
         <v>3.12</v>
@@ -40604,7 +40610,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ190">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR190">
         <v>1.47</v>
@@ -41141,7 +41147,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q193">
         <v>2.13</v>
@@ -41347,7 +41353,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q194">
         <v>2.35</v>
@@ -41425,7 +41431,7 @@
         <v>1.2</v>
       </c>
       <c r="AP194">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ194">
         <v>1</v>
@@ -41553,7 +41559,7 @@
         <v>205</v>
       </c>
       <c r="P195" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41965,7 +41971,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42171,7 +42177,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q198">
         <v>3.48</v>
@@ -42789,7 +42795,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42995,7 +43001,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q202">
         <v>2.46</v>
@@ -43488,7 +43494,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ204">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR204">
         <v>1.43</v>
@@ -43613,7 +43619,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
@@ -44103,7 +44109,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ207">
         <v>1.12</v>
@@ -44437,7 +44443,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44643,7 +44649,7 @@
         <v>151</v>
       </c>
       <c r="P210" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q210">
         <v>3.11</v>
@@ -45055,7 +45061,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q212">
         <v>2.95</v>
@@ -45467,7 +45473,7 @@
         <v>227</v>
       </c>
       <c r="P214" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q214">
         <v>3.5</v>
@@ -45548,7 +45554,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ214">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -45751,7 +45757,7 @@
         <v>2.09</v>
       </c>
       <c r="AP215">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ215">
         <v>2.06</v>
@@ -46085,7 +46091,7 @@
         <v>228</v>
       </c>
       <c r="P217" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q217">
         <v>1.91</v>
@@ -47527,7 +47533,7 @@
         <v>88</v>
       </c>
       <c r="P224" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q224">
         <v>3.34</v>
@@ -47608,7 +47614,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ224">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR224">
         <v>1.48</v>
@@ -47733,7 +47739,7 @@
         <v>147</v>
       </c>
       <c r="P225" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q225">
         <v>3.72</v>
@@ -48017,7 +48023,7 @@
         <v>0.42</v>
       </c>
       <c r="AP226">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ226">
         <v>0.35</v>
@@ -48226,7 +48232,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ227">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR227">
         <v>1.35</v>
@@ -48557,7 +48563,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q229">
         <v>3.48</v>
@@ -48763,7 +48769,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q230">
         <v>3.3</v>
@@ -48841,7 +48847,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ230">
         <v>1.29</v>
@@ -49381,7 +49387,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49587,7 +49593,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q234">
         <v>3.04</v>
@@ -51029,7 +51035,7 @@
         <v>240</v>
       </c>
       <c r="P241" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q241">
         <v>3.4</v>
@@ -51107,7 +51113,7 @@
         <v>2.08</v>
       </c>
       <c r="AP241">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ241">
         <v>2.06</v>
@@ -51441,7 +51447,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51647,7 +51653,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -52471,7 +52477,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q248">
         <v>3.5</v>
@@ -52552,7 +52558,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ248">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR248">
         <v>1.39</v>
@@ -52883,7 +52889,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53170,7 +53176,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ251">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR251">
         <v>1.33</v>
@@ -53295,7 +53301,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q252">
         <v>3.51</v>
@@ -53501,7 +53507,7 @@
         <v>88</v>
       </c>
       <c r="P253" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -53579,7 +53585,7 @@
         <v>1.23</v>
       </c>
       <c r="AP253">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ253">
         <v>1.29</v>
@@ -54325,7 +54331,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q257">
         <v>3.48</v>
@@ -54531,7 +54537,7 @@
         <v>250</v>
       </c>
       <c r="P258" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -55561,7 +55567,7 @@
         <v>251</v>
       </c>
       <c r="P263" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q263">
         <v>3.45</v>
@@ -55767,7 +55773,7 @@
         <v>252</v>
       </c>
       <c r="P264" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q264">
         <v>3.58</v>
@@ -55973,7 +55979,7 @@
         <v>88</v>
       </c>
       <c r="P265" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q265">
         <v>3.08</v>
@@ -56260,7 +56266,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ266">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR266">
         <v>1.56</v>
@@ -56385,7 +56391,7 @@
         <v>253</v>
       </c>
       <c r="P267" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q267">
         <v>2.95</v>
@@ -56591,7 +56597,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q268">
         <v>2.8</v>
@@ -56669,7 +56675,7 @@
         <v>1.36</v>
       </c>
       <c r="AP268">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ268">
         <v>1.44</v>
@@ -56797,7 +56803,7 @@
         <v>88</v>
       </c>
       <c r="P269" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q269">
         <v>4.5</v>
@@ -56878,7 +56884,7 @@
         <v>1</v>
       </c>
       <c r="AQ269">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR269">
         <v>1.55</v>
@@ -57003,7 +57009,7 @@
         <v>254</v>
       </c>
       <c r="P270" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q270">
         <v>2.3</v>
@@ -57209,7 +57215,7 @@
         <v>88</v>
       </c>
       <c r="P271" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q271">
         <v>2.34</v>
@@ -57287,7 +57293,7 @@
         <v>1.36</v>
       </c>
       <c r="AP271">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ271">
         <v>1.29</v>
@@ -57415,7 +57421,7 @@
         <v>88</v>
       </c>
       <c r="P272" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q272">
         <v>2.48</v>
@@ -57621,7 +57627,7 @@
         <v>255</v>
       </c>
       <c r="P273" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q273">
         <v>2.75</v>
@@ -57827,7 +57833,7 @@
         <v>256</v>
       </c>
       <c r="P274" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q274">
         <v>2.01</v>
@@ -58033,7 +58039,7 @@
         <v>257</v>
       </c>
       <c r="P275" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q275">
         <v>2.23</v>
@@ -58239,7 +58245,7 @@
         <v>106</v>
       </c>
       <c r="P276" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q276">
         <v>3.1</v>
@@ -58651,7 +58657,7 @@
         <v>258</v>
       </c>
       <c r="P278" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q278">
         <v>4.2</v>
@@ -58857,7 +58863,7 @@
         <v>236</v>
       </c>
       <c r="P279" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q279">
         <v>4.5</v>
@@ -59063,7 +59069,7 @@
         <v>88</v>
       </c>
       <c r="P280" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q280">
         <v>3.4</v>
@@ -59759,7 +59765,7 @@
         <v>1.33</v>
       </c>
       <c r="AP283">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ283">
         <v>1.31</v>
@@ -59968,7 +59974,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ284">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR284">
         <v>1.43</v>
@@ -60093,7 +60099,7 @@
         <v>88</v>
       </c>
       <c r="P285" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60174,7 +60180,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ285">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR285">
         <v>1.48</v>
@@ -60711,7 +60717,7 @@
         <v>262</v>
       </c>
       <c r="P288" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -60917,7 +60923,7 @@
         <v>263</v>
       </c>
       <c r="P289" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q289">
         <v>2.03</v>
@@ -60995,7 +61001,7 @@
         <v>1.47</v>
       </c>
       <c r="AP289">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ289">
         <v>1.44</v>
@@ -61123,7 +61129,7 @@
         <v>264</v>
       </c>
       <c r="P290" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q290">
         <v>3</v>
@@ -61947,7 +61953,7 @@
         <v>267</v>
       </c>
       <c r="P294" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q294">
         <v>3.94</v>
@@ -62153,7 +62159,7 @@
         <v>88</v>
       </c>
       <c r="P295" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q295">
         <v>6.5</v>
@@ -62359,7 +62365,7 @@
         <v>268</v>
       </c>
       <c r="P296" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q296">
         <v>1.93</v>
@@ -62565,7 +62571,7 @@
         <v>269</v>
       </c>
       <c r="P297" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q297">
         <v>2.97</v>
@@ -62977,7 +62983,7 @@
         <v>250</v>
       </c>
       <c r="P299" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q299">
         <v>2.83</v>
@@ -63279,19 +63285,19 @@
         <v>5</v>
       </c>
       <c r="AV300">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW300">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AX300">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY300">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ300">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA300">
         <v>6</v>
@@ -63389,7 +63395,7 @@
         <v>272</v>
       </c>
       <c r="P301" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q301">
         <v>2.48</v>
@@ -63482,22 +63488,22 @@
         <v>2.82</v>
       </c>
       <c r="AU301">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV301">
+        <v>8</v>
+      </c>
+      <c r="AW301">
         <v>6</v>
       </c>
-      <c r="AW301">
-        <v>5</v>
-      </c>
       <c r="AX301">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY301">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ301">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA301">
         <v>3</v>
@@ -63595,7 +63601,7 @@
         <v>273</v>
       </c>
       <c r="P302" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q302">
         <v>2.29</v>
@@ -63694,25 +63700,25 @@
         <v>7</v>
       </c>
       <c r="AW302">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX302">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY302">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ302">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA302">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB302">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC302">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD302">
         <v>1.59</v>
@@ -63752,6 +63758,418 @@
       </c>
       <c r="BP302">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>6775935</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45431.29166666666</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>72</v>
+      </c>
+      <c r="H303" t="s">
+        <v>82</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
+        <v>88</v>
+      </c>
+      <c r="P303" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q303">
+        <v>1.85</v>
+      </c>
+      <c r="R303">
+        <v>2.4</v>
+      </c>
+      <c r="S303">
+        <v>7</v>
+      </c>
+      <c r="T303">
+        <v>1.33</v>
+      </c>
+      <c r="U303">
+        <v>3</v>
+      </c>
+      <c r="V303">
+        <v>2.5</v>
+      </c>
+      <c r="W303">
+        <v>1.48</v>
+      </c>
+      <c r="X303">
+        <v>5.75</v>
+      </c>
+      <c r="Y303">
+        <v>1.1</v>
+      </c>
+      <c r="Z303">
+        <v>1.4</v>
+      </c>
+      <c r="AA303">
+        <v>4.3</v>
+      </c>
+      <c r="AB303">
+        <v>6.75</v>
+      </c>
+      <c r="AC303">
+        <v>1.02</v>
+      </c>
+      <c r="AD303">
+        <v>10</v>
+      </c>
+      <c r="AE303">
+        <v>1.25</v>
+      </c>
+      <c r="AF303">
+        <v>3.6</v>
+      </c>
+      <c r="AG303">
+        <v>1.7</v>
+      </c>
+      <c r="AH303">
+        <v>1.97</v>
+      </c>
+      <c r="AI303">
+        <v>2</v>
+      </c>
+      <c r="AJ303">
+        <v>1.73</v>
+      </c>
+      <c r="AK303">
+        <v>1.1</v>
+      </c>
+      <c r="AL303">
+        <v>1.18</v>
+      </c>
+      <c r="AM303">
+        <v>2.88</v>
+      </c>
+      <c r="AN303">
+        <v>1.81</v>
+      </c>
+      <c r="AO303">
+        <v>1.44</v>
+      </c>
+      <c r="AP303">
+        <v>1.71</v>
+      </c>
+      <c r="AQ303">
+        <v>1.53</v>
+      </c>
+      <c r="AR303">
+        <v>1.66</v>
+      </c>
+      <c r="AS303">
+        <v>1.17</v>
+      </c>
+      <c r="AT303">
+        <v>2.83</v>
+      </c>
+      <c r="AU303">
+        <v>2</v>
+      </c>
+      <c r="AV303">
+        <v>4</v>
+      </c>
+      <c r="AW303">
+        <v>7</v>
+      </c>
+      <c r="AX303">
+        <v>1</v>
+      </c>
+      <c r="AY303">
+        <v>9</v>
+      </c>
+      <c r="AZ303">
+        <v>5</v>
+      </c>
+      <c r="BA303">
+        <v>3</v>
+      </c>
+      <c r="BB303">
+        <v>0</v>
+      </c>
+      <c r="BC303">
+        <v>3</v>
+      </c>
+      <c r="BD303">
+        <v>1.36</v>
+      </c>
+      <c r="BE303">
+        <v>10.75</v>
+      </c>
+      <c r="BF303">
+        <v>3.6</v>
+      </c>
+      <c r="BG303">
+        <v>1.13</v>
+      </c>
+      <c r="BH303">
+        <v>5</v>
+      </c>
+      <c r="BI303">
+        <v>1.29</v>
+      </c>
+      <c r="BJ303">
+        <v>3.4</v>
+      </c>
+      <c r="BK303">
+        <v>1.44</v>
+      </c>
+      <c r="BL303">
+        <v>2.6</v>
+      </c>
+      <c r="BM303">
+        <v>1.73</v>
+      </c>
+      <c r="BN303">
+        <v>2.08</v>
+      </c>
+      <c r="BO303">
+        <v>2.16</v>
+      </c>
+      <c r="BP303">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>6775937</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45431.29166666666</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>73</v>
+      </c>
+      <c r="H304" t="s">
+        <v>79</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304" t="s">
+        <v>274</v>
+      </c>
+      <c r="P304" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q304">
+        <v>4.65</v>
+      </c>
+      <c r="R304">
+        <v>2.31</v>
+      </c>
+      <c r="S304">
+        <v>2.33</v>
+      </c>
+      <c r="T304">
+        <v>1.33</v>
+      </c>
+      <c r="U304">
+        <v>3.13</v>
+      </c>
+      <c r="V304">
+        <v>2.69</v>
+      </c>
+      <c r="W304">
+        <v>1.43</v>
+      </c>
+      <c r="X304">
+        <v>6.27</v>
+      </c>
+      <c r="Y304">
+        <v>1.08</v>
+      </c>
+      <c r="Z304">
+        <v>4.5</v>
+      </c>
+      <c r="AA304">
+        <v>3.8</v>
+      </c>
+      <c r="AB304">
+        <v>1.65</v>
+      </c>
+      <c r="AC304">
+        <v>1.02</v>
+      </c>
+      <c r="AD304">
+        <v>10</v>
+      </c>
+      <c r="AE304">
+        <v>1.25</v>
+      </c>
+      <c r="AF304">
+        <v>3.6</v>
+      </c>
+      <c r="AG304">
+        <v>1.71</v>
+      </c>
+      <c r="AH304">
+        <v>1.95</v>
+      </c>
+      <c r="AI304">
+        <v>1.76</v>
+      </c>
+      <c r="AJ304">
+        <v>2.01</v>
+      </c>
+      <c r="AK304">
+        <v>2.18</v>
+      </c>
+      <c r="AL304">
+        <v>1.23</v>
+      </c>
+      <c r="AM304">
+        <v>1.16</v>
+      </c>
+      <c r="AN304">
+        <v>1.44</v>
+      </c>
+      <c r="AO304">
+        <v>2.06</v>
+      </c>
+      <c r="AP304">
+        <v>1.41</v>
+      </c>
+      <c r="AQ304">
+        <v>2</v>
+      </c>
+      <c r="AR304">
+        <v>1.43</v>
+      </c>
+      <c r="AS304">
+        <v>1.39</v>
+      </c>
+      <c r="AT304">
+        <v>2.82</v>
+      </c>
+      <c r="AU304">
+        <v>0</v>
+      </c>
+      <c r="AV304">
+        <v>3</v>
+      </c>
+      <c r="AW304">
+        <v>5</v>
+      </c>
+      <c r="AX304">
+        <v>4</v>
+      </c>
+      <c r="AY304">
+        <v>5</v>
+      </c>
+      <c r="AZ304">
+        <v>7</v>
+      </c>
+      <c r="BA304">
+        <v>1</v>
+      </c>
+      <c r="BB304">
+        <v>3</v>
+      </c>
+      <c r="BC304">
+        <v>4</v>
+      </c>
+      <c r="BD304">
+        <v>2.54</v>
+      </c>
+      <c r="BE304">
+        <v>9.4</v>
+      </c>
+      <c r="BF304">
+        <v>1.65</v>
+      </c>
+      <c r="BG304">
+        <v>1.2</v>
+      </c>
+      <c r="BH304">
+        <v>4</v>
+      </c>
+      <c r="BI304">
+        <v>1.33</v>
+      </c>
+      <c r="BJ304">
+        <v>3</v>
+      </c>
+      <c r="BK304">
+        <v>1.56</v>
+      </c>
+      <c r="BL304">
+        <v>2.36</v>
+      </c>
+      <c r="BM304">
+        <v>1.92</v>
+      </c>
+      <c r="BN304">
+        <v>1.88</v>
+      </c>
+      <c r="BO304">
+        <v>2.38</v>
+      </c>
+      <c r="BP304">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20232024.xlsx
@@ -63912,19 +63912,19 @@
         <v>10</v>
       </c>
       <c r="AV303">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW303">
         <v>9</v>
       </c>
       <c r="AX303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY303">
         <v>19</v>
       </c>
       <c r="AZ303">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA303">
         <v>10</v>
@@ -64115,22 +64115,22 @@
         <v>2.82</v>
       </c>
       <c r="AU304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV304">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW304">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX304">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY304">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ304">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA304">
         <v>6</v>
